--- a/q_branch/mcp-evaluation/results/all/aggregated_results.xlsx
+++ b/q_branch/mcp-evaluation/results/all/aggregated_results.xlsx
@@ -496,7 +496,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J6"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -506,14 +506,13 @@
   <cols>
     <col width="18" customWidth="1" min="1" max="1"/>
     <col width="17" customWidth="1" min="2" max="2"/>
-    <col width="17" customWidth="1" min="3" max="3"/>
+    <col width="11" customWidth="1" min="3" max="3"/>
     <col width="11" customWidth="1" min="4" max="4"/>
     <col width="11" customWidth="1" min="5" max="5"/>
-    <col width="11" customWidth="1" min="6" max="6"/>
-    <col width="18" customWidth="1" min="7" max="7"/>
-    <col width="11" customWidth="1" min="8" max="8"/>
-    <col width="10" customWidth="1" min="9" max="9"/>
-    <col width="12" customWidth="1" min="10" max="10"/>
+    <col width="18" customWidth="1" min="6" max="6"/>
+    <col width="11" customWidth="1" min="7" max="7"/>
+    <col width="10" customWidth="1" min="8" max="8"/>
+    <col width="12" customWidth="1" min="9" max="9"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -529,40 +528,35 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>completed_count</t>
+          <t>avg_score</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>avg_score</t>
+          <t>min_score</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>min_score</t>
+          <t>max_score</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>max_score</t>
+          <t>avg_duration_sec</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>avg_duration_sec</t>
+          <t>avg_turns</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>avg_turns</t>
+          <t>avg_cost</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>avg_cost</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>total_cost</t>
         </is>
@@ -571,69 +565,63 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>bash</t>
+          <t>tools-bash</t>
         </is>
       </c>
       <c r="B2" t="n">
         <v>75</v>
       </c>
       <c r="C2" t="n">
-        <v>75</v>
+        <v>79.84</v>
       </c>
       <c r="D2" t="n">
-        <v>76.59999999999999</v>
+        <v>5</v>
       </c>
       <c r="E2" t="n">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="F2" t="n">
-        <v>100</v>
+        <v>93.42</v>
       </c>
       <c r="G2" t="n">
-        <v>90.69</v>
-      </c>
-      <c r="H2" t="n">
-        <v>33.05</v>
+        <v>37.81</v>
+      </c>
+      <c r="H2" s="2" t="n">
+        <v>0.38</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>0.31</v>
-      </c>
-      <c r="J2" s="2" t="n">
-        <v>23.03</v>
+        <v>28.39</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>safe-shell</t>
+          <t>tools-safe-shell</t>
         </is>
       </c>
       <c r="B3" t="n">
         <v>75</v>
       </c>
       <c r="C3" t="n">
-        <v>75</v>
+        <v>78.01000000000001</v>
       </c>
       <c r="D3" t="n">
-        <v>66.81</v>
+        <v>5</v>
       </c>
       <c r="E3" t="n">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="F3" t="n">
-        <v>100</v>
+        <v>107.41</v>
       </c>
       <c r="G3" t="n">
-        <v>93.54000000000001</v>
-      </c>
-      <c r="H3" t="n">
-        <v>38.47</v>
+        <v>41.92</v>
+      </c>
+      <c r="H3" s="2" t="n">
+        <v>0.4</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="J3" s="2" t="n">
-        <v>26.92</v>
+        <v>29.92</v>
       </c>
     </row>
     <row r="4">
@@ -646,96 +634,87 @@
         <v>75</v>
       </c>
       <c r="C4" t="n">
-        <v>75</v>
+        <v>76.95999999999999</v>
       </c>
       <c r="D4" t="n">
-        <v>76.95999999999999</v>
+        <v>5</v>
       </c>
       <c r="E4" t="n">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="F4" t="n">
-        <v>100</v>
+        <v>95.05</v>
       </c>
       <c r="G4" t="n">
-        <v>95.05</v>
-      </c>
-      <c r="H4" t="n">
         <v>45.25</v>
       </c>
+      <c r="H4" s="2" t="n">
+        <v>0.46</v>
+      </c>
       <c r="I4" s="2" t="n">
-        <v>0.46</v>
-      </c>
-      <c r="J4" s="2" t="n">
         <v>34.36</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>tools-bash</t>
+          <t>bash</t>
         </is>
       </c>
       <c r="B5" t="n">
         <v>75</v>
       </c>
       <c r="C5" t="n">
-        <v>75</v>
+        <v>76.59999999999999</v>
       </c>
       <c r="D5" t="n">
-        <v>79.84</v>
+        <v>5</v>
       </c>
       <c r="E5" t="n">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="F5" t="n">
-        <v>100</v>
+        <v>90.69</v>
       </c>
       <c r="G5" t="n">
-        <v>93.42</v>
-      </c>
-      <c r="H5" t="n">
-        <v>37.81</v>
+        <v>33.05</v>
+      </c>
+      <c r="H5" s="2" t="n">
+        <v>0.31</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="J5" s="2" t="n">
-        <v>28.39</v>
+        <v>23.03</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>tools-safe-shell</t>
+          <t>safe-shell</t>
         </is>
       </c>
       <c r="B6" t="n">
         <v>75</v>
       </c>
       <c r="C6" t="n">
-        <v>75</v>
+        <v>66.81</v>
       </c>
       <c r="D6" t="n">
-        <v>78.01000000000001</v>
+        <v>5</v>
       </c>
       <c r="E6" t="n">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="F6" t="n">
-        <v>100</v>
+        <v>93.54000000000001</v>
       </c>
       <c r="G6" t="n">
-        <v>107.41</v>
-      </c>
-      <c r="H6" t="n">
-        <v>41.92</v>
+        <v>38.47</v>
+      </c>
+      <c r="H6" s="2" t="n">
+        <v>0.36</v>
       </c>
       <c r="I6" s="2" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="J6" s="2" t="n">
-        <v>29.92</v>
+        <v>26.92</v>
       </c>
     </row>
   </sheetData>

--- a/q_branch/mcp-evaluation/results/all/aggregated_results.xlsx
+++ b/q_branch/mcp-evaluation/results/all/aggregated_results.xlsx
@@ -13,8 +13,9 @@
     <sheet name="safe-shell All Runs" sheetId="4" state="visible" r:id="rId4"/>
     <sheet name="tools All Runs" sheetId="5" state="visible" r:id="rId5"/>
     <sheet name="tools-bash All Runs" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="tools-safe-shell All Runs" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="Raw Data" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="tools-plus All Runs" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="tools-safe-shell All Runs" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="Raw Data" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -186,7 +187,7 @@
       <row>49</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="12780168" cy="4286250"/>
+    <ext cx="15637668" cy="4286250"/>
     <pic>
       <nvPicPr>
         <cNvPr id="2" name="Image 2" descr="Picture"/>
@@ -496,7 +497,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -596,14 +597,14 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>tools-safe-shell</t>
+          <t>tools-plus</t>
         </is>
       </c>
       <c r="B3" t="n">
         <v>75</v>
       </c>
       <c r="C3" t="n">
-        <v>78.01000000000001</v>
+        <v>79.79000000000001</v>
       </c>
       <c r="D3" t="n">
         <v>5</v>
@@ -612,29 +613,29 @@
         <v>100</v>
       </c>
       <c r="F3" t="n">
-        <v>107.41</v>
+        <v>243.47</v>
       </c>
       <c r="G3" t="n">
-        <v>41.92</v>
+        <v>55.53</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>0.4</v>
+        <v>1.19</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>29.92</v>
+        <v>89.22</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>tools</t>
+          <t>tools-safe-shell</t>
         </is>
       </c>
       <c r="B4" t="n">
         <v>75</v>
       </c>
       <c r="C4" t="n">
-        <v>76.95999999999999</v>
+        <v>78.01000000000001</v>
       </c>
       <c r="D4" t="n">
         <v>5</v>
@@ -643,29 +644,29 @@
         <v>100</v>
       </c>
       <c r="F4" t="n">
-        <v>95.05</v>
+        <v>107.41</v>
       </c>
       <c r="G4" t="n">
-        <v>45.25</v>
+        <v>41.92</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>0.46</v>
+        <v>0.4</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>34.36</v>
+        <v>29.92</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>bash</t>
+          <t>tools</t>
         </is>
       </c>
       <c r="B5" t="n">
         <v>75</v>
       </c>
       <c r="C5" t="n">
-        <v>76.59999999999999</v>
+        <v>76.95999999999999</v>
       </c>
       <c r="D5" t="n">
         <v>5</v>
@@ -674,29 +675,29 @@
         <v>100</v>
       </c>
       <c r="F5" t="n">
-        <v>90.69</v>
+        <v>95.05</v>
       </c>
       <c r="G5" t="n">
-        <v>33.05</v>
+        <v>45.25</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>0.31</v>
+        <v>0.46</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>23.03</v>
+        <v>34.36</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>safe-shell</t>
+          <t>bash</t>
         </is>
       </c>
       <c r="B6" t="n">
         <v>75</v>
       </c>
       <c r="C6" t="n">
-        <v>66.81</v>
+        <v>76.59999999999999</v>
       </c>
       <c r="D6" t="n">
         <v>5</v>
@@ -705,15 +706,46 @@
         <v>100</v>
       </c>
       <c r="F6" t="n">
+        <v>90.69</v>
+      </c>
+      <c r="G6" t="n">
+        <v>33.05</v>
+      </c>
+      <c r="H6" s="2" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="I6" s="2" t="n">
+        <v>23.03</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>safe-shell</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>75</v>
+      </c>
+      <c r="C7" t="n">
+        <v>66.81</v>
+      </c>
+      <c r="D7" t="n">
+        <v>5</v>
+      </c>
+      <c r="E7" t="n">
+        <v>100</v>
+      </c>
+      <c r="F7" t="n">
         <v>93.54000000000001</v>
       </c>
-      <c r="G6" t="n">
+      <c r="G7" t="n">
         <v>38.47</v>
       </c>
-      <c r="H6" s="2" t="n">
+      <c r="H7" s="2" t="n">
         <v>0.36</v>
       </c>
-      <c r="I6" s="2" t="n">
+      <c r="I7" s="2" t="n">
         <v>26.92</v>
       </c>
     </row>
@@ -729,7 +761,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G93"/>
+  <dimension ref="A1:G112"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2846,6 +2878,427 @@
         <v>100</v>
       </c>
       <c r="G93" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="94"/>
+    <row r="95"/>
+    <row r="96">
+      <c r="A96" s="3" t="inlineStr">
+        <is>
+          <t>TOOLS-PLUS Statistics</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="4" t="inlineStr">
+        <is>
+          <t>scenario</t>
+        </is>
+      </c>
+      <c r="B97" s="4" t="inlineStr">
+        <is>
+          <t>mean</t>
+        </is>
+      </c>
+      <c r="C97" s="4" t="inlineStr">
+        <is>
+          <t>median</t>
+        </is>
+      </c>
+      <c r="D97" s="4" t="inlineStr">
+        <is>
+          <t>std</t>
+        </is>
+      </c>
+      <c r="E97" s="4" t="inlineStr">
+        <is>
+          <t>min</t>
+        </is>
+      </c>
+      <c r="F97" s="4" t="inlineStr">
+        <is>
+          <t>max</t>
+        </is>
+      </c>
+      <c r="G97" s="4" t="inlineStr">
+        <is>
+          <t>count</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>connection-exhaustion</t>
+        </is>
+      </c>
+      <c r="B98" t="n">
+        <v>97.59999999999999</v>
+      </c>
+      <c r="C98" t="n">
+        <v>98</v>
+      </c>
+      <c r="D98" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="E98" t="n">
+        <v>92</v>
+      </c>
+      <c r="F98" t="n">
+        <v>100</v>
+      </c>
+      <c r="G98" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>context-switching-storm</t>
+        </is>
+      </c>
+      <c r="B99" t="n">
+        <v>93</v>
+      </c>
+      <c r="C99" t="n">
+        <v>98</v>
+      </c>
+      <c r="D99" t="n">
+        <v>11.92</v>
+      </c>
+      <c r="E99" t="n">
+        <v>72</v>
+      </c>
+      <c r="F99" t="n">
+        <v>100</v>
+      </c>
+      <c r="G99" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>disk-space-full</t>
+        </is>
+      </c>
+      <c r="B100" t="n">
+        <v>88.40000000000001</v>
+      </c>
+      <c r="C100" t="n">
+        <v>92</v>
+      </c>
+      <c r="D100" t="n">
+        <v>6.88</v>
+      </c>
+      <c r="E100" t="n">
+        <v>78</v>
+      </c>
+      <c r="F100" t="n">
+        <v>95</v>
+      </c>
+      <c r="G100" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>dns-resolution-failure</t>
+        </is>
+      </c>
+      <c r="B101" t="n">
+        <v>100</v>
+      </c>
+      <c r="C101" t="n">
+        <v>100</v>
+      </c>
+      <c r="D101" t="n">
+        <v>0</v>
+      </c>
+      <c r="E101" t="n">
+        <v>100</v>
+      </c>
+      <c r="F101" t="n">
+        <v>100</v>
+      </c>
+      <c r="G101" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>file-descriptor-leak</t>
+        </is>
+      </c>
+      <c r="B102" t="n">
+        <v>100</v>
+      </c>
+      <c r="C102" t="n">
+        <v>100</v>
+      </c>
+      <c r="D102" t="n">
+        <v>0</v>
+      </c>
+      <c r="E102" t="n">
+        <v>100</v>
+      </c>
+      <c r="F102" t="n">
+        <v>100</v>
+      </c>
+      <c r="G102" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>high-cpu-usage</t>
+        </is>
+      </c>
+      <c r="B103" t="n">
+        <v>81</v>
+      </c>
+      <c r="C103" t="n">
+        <v>100</v>
+      </c>
+      <c r="D103" t="n">
+        <v>42.49</v>
+      </c>
+      <c r="E103" t="n">
+        <v>5</v>
+      </c>
+      <c r="F103" t="n">
+        <v>100</v>
+      </c>
+      <c r="G103" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>inode-exhaustion</t>
+        </is>
+      </c>
+      <c r="B104" t="n">
+        <v>15</v>
+      </c>
+      <c r="C104" t="n">
+        <v>15</v>
+      </c>
+      <c r="D104" t="n">
+        <v>0</v>
+      </c>
+      <c r="E104" t="n">
+        <v>15</v>
+      </c>
+      <c r="F104" t="n">
+        <v>15</v>
+      </c>
+      <c r="G104" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>io-wait</t>
+        </is>
+      </c>
+      <c r="B105" t="n">
+        <v>68.40000000000001</v>
+      </c>
+      <c r="C105" t="n">
+        <v>72</v>
+      </c>
+      <c r="D105" t="n">
+        <v>24.23</v>
+      </c>
+      <c r="E105" t="n">
+        <v>42</v>
+      </c>
+      <c r="F105" t="n">
+        <v>95</v>
+      </c>
+      <c r="G105" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>log-rotation-failure</t>
+        </is>
+      </c>
+      <c r="B106" t="n">
+        <v>51.2</v>
+      </c>
+      <c r="C106" t="n">
+        <v>52</v>
+      </c>
+      <c r="D106" t="n">
+        <v>22.44</v>
+      </c>
+      <c r="E106" t="n">
+        <v>25</v>
+      </c>
+      <c r="F106" t="n">
+        <v>82</v>
+      </c>
+      <c r="G106" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>memory-leak</t>
+        </is>
+      </c>
+      <c r="B107" t="n">
+        <v>100</v>
+      </c>
+      <c r="C107" t="n">
+        <v>100</v>
+      </c>
+      <c r="D107" t="n">
+        <v>0</v>
+      </c>
+      <c r="E107" t="n">
+        <v>100</v>
+      </c>
+      <c r="F107" t="n">
+        <v>100</v>
+      </c>
+      <c r="G107" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>port-conflict</t>
+        </is>
+      </c>
+      <c r="B108" t="n">
+        <v>95.40000000000001</v>
+      </c>
+      <c r="C108" t="n">
+        <v>95</v>
+      </c>
+      <c r="D108" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="E108" t="n">
+        <v>92</v>
+      </c>
+      <c r="F108" t="n">
+        <v>100</v>
+      </c>
+      <c r="G108" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>swap-thrashing</t>
+        </is>
+      </c>
+      <c r="B109" t="n">
+        <v>93.59999999999999</v>
+      </c>
+      <c r="C109" t="n">
+        <v>95</v>
+      </c>
+      <c r="D109" t="n">
+        <v>3.78</v>
+      </c>
+      <c r="E109" t="n">
+        <v>88</v>
+      </c>
+      <c r="F109" t="n">
+        <v>98</v>
+      </c>
+      <c r="G109" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>tcp-close-wait</t>
+        </is>
+      </c>
+      <c r="B110" t="n">
+        <v>96.2</v>
+      </c>
+      <c r="C110" t="n">
+        <v>98</v>
+      </c>
+      <c r="D110" t="n">
+        <v>5.02</v>
+      </c>
+      <c r="E110" t="n">
+        <v>88</v>
+      </c>
+      <c r="F110" t="n">
+        <v>100</v>
+      </c>
+      <c r="G110" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>tcp-syn-flood</t>
+        </is>
+      </c>
+      <c r="B111" t="n">
+        <v>17</v>
+      </c>
+      <c r="C111" t="n">
+        <v>10</v>
+      </c>
+      <c r="D111" t="n">
+        <v>12.55</v>
+      </c>
+      <c r="E111" t="n">
+        <v>5</v>
+      </c>
+      <c r="F111" t="n">
+        <v>35</v>
+      </c>
+      <c r="G111" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>zombie-processes</t>
+        </is>
+      </c>
+      <c r="B112" t="n">
+        <v>100</v>
+      </c>
+      <c r="C112" t="n">
+        <v>100</v>
+      </c>
+      <c r="D112" t="n">
+        <v>0</v>
+      </c>
+      <c r="E112" t="n">
+        <v>100</v>
+      </c>
+      <c r="F112" t="n">
+        <v>100</v>
+      </c>
+      <c r="G112" t="n">
         <v>5</v>
       </c>
     </row>
@@ -13353,7 +13806,7 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="18" customWidth="1" min="2" max="2"/>
+    <col width="12" customWidth="1" min="2" max="2"/>
     <col width="25" customWidth="1" min="3" max="3"/>
     <col width="11" customWidth="1" min="4" max="4"/>
     <col width="15" customWidth="1" min="5" max="5"/>
@@ -13407,12 +13860,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>run-20260122_183028</t>
+          <t>run-20260123_145235</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>tools-safe-shell</t>
+          <t>tools-plus</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -13426,27 +13879,27 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="F2" t="n">
-        <v>69068</v>
+        <v>284904</v>
       </c>
       <c r="G2" t="n">
-        <v>34</v>
+        <v>60</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>0.36595</v>
+        <v>1.49584545</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>run-20260122_193640</t>
+          <t>run-20260125_202427</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>tools-safe-shell</t>
+          <t>tools-plus</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -13463,24 +13916,24 @@
         <v>100</v>
       </c>
       <c r="F3" t="n">
-        <v>88102</v>
+        <v>153097</v>
       </c>
       <c r="G3" t="n">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>0.5138509999999999</v>
+        <v>0.8873416500000002</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>run-20260122_204258</t>
+          <t>run-20260125_215614</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>tools-safe-shell</t>
+          <t>tools-plus</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -13494,27 +13947,27 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F4" t="n">
-        <v>65092</v>
+        <v>170559</v>
       </c>
       <c r="G4" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>0.34855475</v>
+        <v>0.7068193500000003</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>run-20260122_214409</t>
+          <t>run-20260126_085903</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>tools-safe-shell</t>
+          <t>tools-plus</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -13528,27 +13981,27 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F5" t="n">
-        <v>62876</v>
+        <v>232110</v>
       </c>
       <c r="G5" t="n">
-        <v>34</v>
+        <v>71</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>0.3395489999999999</v>
+        <v>1.3615331</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>run-20260123_085101</t>
+          <t>run-20260126_115815</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>tools-safe-shell</t>
+          <t>tools-plus</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -13562,27 +14015,27 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F6" t="n">
-        <v>87827</v>
+        <v>147651</v>
       </c>
       <c r="G6" t="n">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="H6" s="2" t="n">
-        <v>0.46434825</v>
+        <v>0.8759599999999997</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>run-20260122_183028</t>
+          <t>run-20260123_145235</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>tools-safe-shell</t>
+          <t>tools-plus</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -13599,24 +14052,24 @@
         <v>100</v>
       </c>
       <c r="F7" t="n">
-        <v>110084</v>
+        <v>306965</v>
       </c>
       <c r="G7" t="n">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="H7" s="2" t="n">
-        <v>0.46550025</v>
+        <v>1.52600355</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>run-20260122_193640</t>
+          <t>run-20260125_202427</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>tools-safe-shell</t>
+          <t>tools-plus</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -13630,27 +14083,27 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="F8" t="n">
-        <v>73881</v>
+        <v>142548</v>
       </c>
       <c r="G8" t="n">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="H8" s="2" t="n">
-        <v>0.3233595</v>
+        <v>0.5439659000000002</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>run-20260122_204258</t>
+          <t>run-20260125_215614</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>tools-safe-shell</t>
+          <t>tools-plus</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -13664,27 +14117,27 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>52</v>
+        <v>95</v>
       </c>
       <c r="F9" t="n">
-        <v>63427</v>
+        <v>204135</v>
       </c>
       <c r="G9" t="n">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="H9" s="2" t="n">
-        <v>0.285308</v>
+        <v>1.102479</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>run-20260122_214409</t>
+          <t>run-20260126_085903</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>tools-safe-shell</t>
+          <t>tools-plus</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -13698,27 +14151,27 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>100</v>
+        <v>72</v>
       </c>
       <c r="F10" t="n">
-        <v>83137</v>
+        <v>187304</v>
       </c>
       <c r="G10" t="n">
-        <v>32</v>
+        <v>62</v>
       </c>
       <c r="H10" s="2" t="n">
-        <v>0.3798144999999999</v>
+        <v>1.349376249999999</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>run-20260123_085101</t>
+          <t>run-20260126_115815</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>tools-safe-shell</t>
+          <t>tools-plus</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -13732,27 +14185,27 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F11" t="n">
-        <v>96010</v>
+        <v>215530</v>
       </c>
       <c r="G11" t="n">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="H11" s="2" t="n">
-        <v>0.485843</v>
+        <v>1.3198825</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>run-20260122_183028</t>
+          <t>run-20260123_145235</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>tools-safe-shell</t>
+          <t>tools-plus</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -13766,27 +14219,27 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="F12" t="n">
-        <v>1095196</v>
+        <v>206083</v>
       </c>
       <c r="G12" t="n">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="H12" s="2" t="n">
-        <v>0.2971765</v>
+        <v>0.9840696499999999</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>run-20260122_193640</t>
+          <t>run-20260125_202427</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>tools-safe-shell</t>
+          <t>tools-plus</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -13800,27 +14253,27 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="F13" t="n">
-        <v>90891</v>
+        <v>142428</v>
       </c>
       <c r="G13" t="n">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="H13" s="2" t="n">
-        <v>0.34782525</v>
+        <v>0.7519880999999997</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>run-20260122_204258</t>
+          <t>run-20260125_215614</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>tools-safe-shell</t>
+          <t>tools-plus</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -13834,27 +14287,27 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="F14" t="n">
-        <v>94383</v>
+        <v>184268</v>
       </c>
       <c r="G14" t="n">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="H14" s="2" t="n">
-        <v>0.4175235</v>
+        <v>0.98423375</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>run-20260122_214409</t>
+          <t>run-20260126_085903</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>tools-safe-shell</t>
+          <t>tools-plus</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -13868,27 +14321,27 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="F15" t="n">
-        <v>64621</v>
+        <v>205172</v>
       </c>
       <c r="G15" t="n">
-        <v>33</v>
+        <v>66</v>
       </c>
       <c r="H15" s="2" t="n">
-        <v>0.27765725</v>
+        <v>1.24214895</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>run-20260123_085101</t>
+          <t>run-20260126_115815</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>tools-safe-shell</t>
+          <t>tools-plus</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -13902,27 +14355,27 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="F16" t="n">
-        <v>88423</v>
+        <v>147031</v>
       </c>
       <c r="G16" t="n">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="H16" s="2" t="n">
-        <v>0.376963</v>
+        <v>0.7708652499999999</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>run-20260122_183028</t>
+          <t>run-20260123_145235</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>tools-safe-shell</t>
+          <t>tools-plus</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -13939,24 +14392,24 @@
         <v>100</v>
       </c>
       <c r="F17" t="n">
-        <v>65243</v>
+        <v>390664</v>
       </c>
       <c r="G17" t="n">
-        <v>29</v>
+        <v>59</v>
       </c>
       <c r="H17" s="2" t="n">
-        <v>0.26042025</v>
+        <v>1.17142455</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>run-20260122_193640</t>
+          <t>run-20260125_202427</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>tools-safe-shell</t>
+          <t>tools-plus</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -13973,24 +14426,24 @@
         <v>100</v>
       </c>
       <c r="F18" t="n">
-        <v>69904</v>
+        <v>263948</v>
       </c>
       <c r="G18" t="n">
-        <v>30</v>
+        <v>59</v>
       </c>
       <c r="H18" s="2" t="n">
-        <v>0.26132115</v>
+        <v>1.53028875</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>run-20260122_204258</t>
+          <t>run-20260125_215614</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>tools-safe-shell</t>
+          <t>tools-plus</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -14004,27 +14457,27 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F19" t="n">
-        <v>65004</v>
+        <v>189286</v>
       </c>
       <c r="G19" t="n">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="H19" s="2" t="n">
-        <v>0.25164325</v>
+        <v>1.03368095</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>run-20260122_214409</t>
+          <t>run-20260126_085903</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>tools-safe-shell</t>
+          <t>tools-plus</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -14041,24 +14494,24 @@
         <v>100</v>
       </c>
       <c r="F20" t="n">
-        <v>63298</v>
+        <v>170564</v>
       </c>
       <c r="G20" t="n">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="H20" s="2" t="n">
-        <v>0.22349675</v>
+        <v>0.7275219499999996</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>run-20260123_085101</t>
+          <t>run-20260126_115815</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>tools-safe-shell</t>
+          <t>tools-plus</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -14075,24 +14528,24 @@
         <v>100</v>
       </c>
       <c r="F21" t="n">
-        <v>62684</v>
+        <v>310821</v>
       </c>
       <c r="G21" t="n">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="H21" s="2" t="n">
-        <v>0.24438775</v>
+        <v>1.592928300000001</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>run-20260122_183028</t>
+          <t>run-20260123_145235</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>tools-safe-shell</t>
+          <t>tools-plus</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -14109,24 +14562,24 @@
         <v>100</v>
       </c>
       <c r="F22" t="n">
-        <v>89221</v>
+        <v>154350</v>
       </c>
       <c r="G22" t="n">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="H22" s="2" t="n">
-        <v>0.41022475</v>
+        <v>0.4955864500000001</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>run-20260122_193640</t>
+          <t>run-20260125_202427</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>tools-safe-shell</t>
+          <t>tools-plus</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -14143,24 +14596,24 @@
         <v>100</v>
       </c>
       <c r="F23" t="n">
-        <v>830290</v>
+        <v>185052</v>
       </c>
       <c r="G23" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H23" s="2" t="n">
-        <v>0.25698275</v>
+        <v>0.8023456999999997</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>run-20260122_204258</t>
+          <t>run-20260125_215614</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>tools-safe-shell</t>
+          <t>tools-plus</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -14177,24 +14630,24 @@
         <v>100</v>
       </c>
       <c r="F24" t="n">
-        <v>74865</v>
+        <v>251862</v>
       </c>
       <c r="G24" t="n">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="H24" s="2" t="n">
-        <v>0.32762675</v>
+        <v>1.6465874</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>run-20260122_214409</t>
+          <t>run-20260126_085903</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>tools-safe-shell</t>
+          <t>tools-plus</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -14211,24 +14664,24 @@
         <v>100</v>
       </c>
       <c r="F25" t="n">
-        <v>88880</v>
+        <v>125711</v>
       </c>
       <c r="G25" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H25" s="2" t="n">
-        <v>0.41488025</v>
+        <v>0.9354105</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>run-20260123_085101</t>
+          <t>run-20260126_115815</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>tools-safe-shell</t>
+          <t>tools-plus</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -14245,24 +14698,24 @@
         <v>100</v>
       </c>
       <c r="F26" t="n">
-        <v>70630</v>
+        <v>277703</v>
       </c>
       <c r="G26" t="n">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="H26" s="2" t="n">
-        <v>0.28668275</v>
+        <v>1.340049699999999</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>run-20260122_183028</t>
+          <t>run-20260123_145235</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>tools-safe-shell</t>
+          <t>tools-plus</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -14276,27 +14729,27 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="F27" t="n">
-        <v>75669</v>
+        <v>144843</v>
       </c>
       <c r="G27" t="n">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="H27" s="2" t="n">
-        <v>0.4621927</v>
+        <v>0.5742331500000002</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>run-20260122_193640</t>
+          <t>run-20260125_202427</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>tools-safe-shell</t>
+          <t>tools-plus</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -14313,24 +14766,24 @@
         <v>100</v>
       </c>
       <c r="F28" t="n">
-        <v>64201</v>
+        <v>241907</v>
       </c>
       <c r="G28" t="n">
-        <v>30</v>
+        <v>64</v>
       </c>
       <c r="H28" s="2" t="n">
-        <v>0.4109643000000001</v>
+        <v>1.824407</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>run-20260122_204258</t>
+          <t>run-20260125_215614</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>tools-safe-shell</t>
+          <t>tools-plus</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -14344,27 +14797,27 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>100</v>
+        <v>5</v>
       </c>
       <c r="F29" t="n">
-        <v>58704</v>
+        <v>343967</v>
       </c>
       <c r="G29" t="n">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="H29" s="2" t="n">
-        <v>0.37736105</v>
+        <v>1.675618949999999</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>run-20260122_214409</t>
+          <t>run-20260126_085903</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>tools-safe-shell</t>
+          <t>tools-plus</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -14378,27 +14831,27 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F30" t="n">
-        <v>51664</v>
+        <v>237396</v>
       </c>
       <c r="G30" t="n">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="H30" s="2" t="n">
-        <v>0.3562793</v>
+        <v>0.5228632499999999</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>run-20260123_085101</t>
+          <t>run-20260126_115815</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>tools-safe-shell</t>
+          <t>tools-plus</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -14415,24 +14868,24 @@
         <v>100</v>
       </c>
       <c r="F31" t="n">
-        <v>62502</v>
+        <v>265986</v>
       </c>
       <c r="G31" t="n">
-        <v>28</v>
+        <v>81</v>
       </c>
       <c r="H31" s="2" t="n">
-        <v>0.414873</v>
+        <v>1.8564645</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>run-20260122_183028</t>
+          <t>run-20260123_145235</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>tools-safe-shell</t>
+          <t>tools-plus</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -14449,24 +14902,24 @@
         <v>15</v>
       </c>
       <c r="F32" t="n">
-        <v>110756</v>
+        <v>215852</v>
       </c>
       <c r="G32" t="n">
-        <v>56</v>
+        <v>75</v>
       </c>
       <c r="H32" s="2" t="n">
-        <v>0.5701437499999999</v>
+        <v>1.16088745</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>run-20260122_193640</t>
+          <t>run-20260125_202427</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>tools-safe-shell</t>
+          <t>tools-plus</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -14480,27 +14933,27 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="F33" t="n">
-        <v>106345</v>
+        <v>220366</v>
       </c>
       <c r="G33" t="n">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="H33" s="2" t="n">
-        <v>0.5030812500000001</v>
+        <v>1.1902262</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>run-20260122_204258</t>
+          <t>run-20260125_215614</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>tools-safe-shell</t>
+          <t>tools-plus</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -14517,24 +14970,24 @@
         <v>15</v>
       </c>
       <c r="F34" t="n">
-        <v>112029</v>
+        <v>231799</v>
       </c>
       <c r="G34" t="n">
-        <v>54</v>
+        <v>77</v>
       </c>
       <c r="H34" s="2" t="n">
-        <v>0.53521475</v>
+        <v>1.2053132</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>run-20260122_214409</t>
+          <t>run-20260126_085903</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>tools-safe-shell</t>
+          <t>tools-plus</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -14551,24 +15004,24 @@
         <v>15</v>
       </c>
       <c r="F35" t="n">
-        <v>111562</v>
+        <v>143348</v>
       </c>
       <c r="G35" t="n">
-        <v>63</v>
+        <v>41</v>
       </c>
       <c r="H35" s="2" t="n">
-        <v>0.5409475</v>
+        <v>0.8774700999999997</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>run-20260123_085101</t>
+          <t>run-20260126_115815</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>tools-safe-shell</t>
+          <t>tools-plus</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -14585,24 +15038,24 @@
         <v>15</v>
       </c>
       <c r="F36" t="n">
-        <v>85001</v>
+        <v>234344</v>
       </c>
       <c r="G36" t="n">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="H36" s="2" t="n">
-        <v>0.4246069999999999</v>
+        <v>1.09256385</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>run-20260122_183028</t>
+          <t>run-20260123_145235</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>tools-safe-shell</t>
+          <t>tools-plus</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -14616,27 +15069,27 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>92</v>
+        <v>45</v>
       </c>
       <c r="F37" t="n">
-        <v>83648</v>
+        <v>428914</v>
       </c>
       <c r="G37" t="n">
-        <v>47</v>
+        <v>125</v>
       </c>
       <c r="H37" s="2" t="n">
-        <v>0.3502466</v>
+        <v>2.469203199999999</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>run-20260122_193640</t>
+          <t>run-20260125_202427</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>tools-safe-shell</t>
+          <t>tools-plus</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -14650,27 +15103,27 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="F38" t="n">
-        <v>103300</v>
+        <v>183960</v>
       </c>
       <c r="G38" t="n">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="H38" s="2" t="n">
-        <v>0.4603495</v>
+        <v>0.8610974999999997</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>run-20260122_204258</t>
+          <t>run-20260125_215614</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>tools-safe-shell</t>
+          <t>tools-plus</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -14684,27 +15137,27 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>78</v>
+        <v>95</v>
       </c>
       <c r="F39" t="n">
-        <v>112149</v>
+        <v>326586</v>
       </c>
       <c r="G39" t="n">
-        <v>46</v>
+        <v>64</v>
       </c>
       <c r="H39" s="2" t="n">
-        <v>0.40489</v>
+        <v>1.503743699999999</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>run-20260122_214409</t>
+          <t>run-20260126_085903</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>tools-safe-shell</t>
+          <t>tools-plus</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -14718,27 +15171,27 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>35</v>
+        <v>88</v>
       </c>
       <c r="F40" t="n">
-        <v>122057</v>
+        <v>281135</v>
       </c>
       <c r="G40" t="n">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="H40" s="2" t="n">
-        <v>0.5117350000000001</v>
+        <v>1.528373349999999</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>run-20260123_085101</t>
+          <t>run-20260126_115815</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>tools-safe-shell</t>
+          <t>tools-plus</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -14752,27 +15205,27 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>88</v>
+        <v>42</v>
       </c>
       <c r="F41" t="n">
-        <v>80187</v>
+        <v>378349</v>
       </c>
       <c r="G41" t="n">
-        <v>45</v>
+        <v>85</v>
       </c>
       <c r="H41" s="2" t="n">
-        <v>0.34154975</v>
+        <v>1.0072683</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>run-20260122_183028</t>
+          <t>run-20260123_145235</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>tools-safe-shell</t>
+          <t>tools-plus</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -14786,27 +15239,27 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="F42" t="n">
-        <v>108108</v>
+        <v>248919</v>
       </c>
       <c r="G42" t="n">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H42" s="2" t="n">
-        <v>0.5408887499999999</v>
+        <v>1.834066</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>run-20260122_193640</t>
+          <t>run-20260125_202427</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>tools-safe-shell</t>
+          <t>tools-plus</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -14820,27 +15273,27 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="F43" t="n">
-        <v>113512</v>
+        <v>232976</v>
       </c>
       <c r="G43" t="n">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="H43" s="2" t="n">
-        <v>0.6240165000000001</v>
+        <v>0.91208315</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>run-20260122_204258</t>
+          <t>run-20260125_215614</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>tools-safe-shell</t>
+          <t>tools-plus</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -14854,27 +15307,27 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="F44" t="n">
-        <v>129810</v>
+        <v>299703</v>
       </c>
       <c r="G44" t="n">
-        <v>80</v>
+        <v>101</v>
       </c>
       <c r="H44" s="2" t="n">
-        <v>0.6782764999999999</v>
+        <v>1.7535822</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>run-20260122_214409</t>
+          <t>run-20260126_085903</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>tools-safe-shell</t>
+          <t>tools-plus</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -14888,27 +15341,27 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>15</v>
+        <v>82</v>
       </c>
       <c r="F45" t="n">
-        <v>119135</v>
+        <v>239121</v>
       </c>
       <c r="G45" t="n">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="H45" s="2" t="n">
-        <v>0.6710394999999999</v>
+        <v>1.123936849999999</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>run-20260123_085101</t>
+          <t>run-20260126_115815</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>tools-safe-shell</t>
+          <t>tools-plus</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -14922,27 +15375,27 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>25</v>
+        <v>52</v>
       </c>
       <c r="F46" t="n">
-        <v>134357</v>
+        <v>345048</v>
       </c>
       <c r="G46" t="n">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="H46" s="2" t="n">
-        <v>0.7485994999999999</v>
+        <v>2.2506348</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>run-20260122_183028</t>
+          <t>run-20260123_145235</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>tools-safe-shell</t>
+          <t>tools-plus</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -14959,24 +15412,24 @@
         <v>100</v>
       </c>
       <c r="F47" t="n">
-        <v>77543</v>
+        <v>131329</v>
       </c>
       <c r="G47" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="H47" s="2" t="n">
-        <v>0.25324365</v>
+        <v>0.47137025</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>run-20260122_193640</t>
+          <t>run-20260125_202427</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>tools-safe-shell</t>
+          <t>tools-plus</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -14993,24 +15446,24 @@
         <v>100</v>
       </c>
       <c r="F48" t="n">
-        <v>87362</v>
+        <v>212752</v>
       </c>
       <c r="G48" t="n">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="H48" s="2" t="n">
-        <v>0.274129</v>
+        <v>1.07591005</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>run-20260122_204258</t>
+          <t>run-20260125_215614</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>tools-safe-shell</t>
+          <t>tools-plus</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -15027,24 +15480,24 @@
         <v>100</v>
       </c>
       <c r="F49" t="n">
-        <v>82441</v>
+        <v>204171</v>
       </c>
       <c r="G49" t="n">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="H49" s="2" t="n">
-        <v>0.28463725</v>
+        <v>0.6687820500000001</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>run-20260122_214409</t>
+          <t>run-20260126_085903</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>tools-safe-shell</t>
+          <t>tools-plus</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -15061,24 +15514,24 @@
         <v>100</v>
       </c>
       <c r="F50" t="n">
-        <v>84148</v>
+        <v>141945</v>
       </c>
       <c r="G50" t="n">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="H50" s="2" t="n">
-        <v>0.3117405</v>
+        <v>0.817071749999999</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>run-20260123_085101</t>
+          <t>run-20260126_115815</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>tools-safe-shell</t>
+          <t>tools-plus</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -15092,27 +15545,27 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F51" t="n">
-        <v>62432</v>
+        <v>274970</v>
       </c>
       <c r="G51" t="n">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="H51" s="2" t="n">
-        <v>0.29294425</v>
+        <v>1.69300745</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>run-20260122_183028</t>
+          <t>run-20260123_145235</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>tools-safe-shell</t>
+          <t>tools-plus</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -15126,27 +15579,27 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="F52" t="n">
-        <v>127932</v>
+        <v>262400</v>
       </c>
       <c r="G52" t="n">
-        <v>78</v>
+        <v>56</v>
       </c>
       <c r="H52" s="2" t="n">
-        <v>0.8262660000000001</v>
+        <v>1.37345345</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>run-20260122_193640</t>
+          <t>run-20260125_202427</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>tools-safe-shell</t>
+          <t>tools-plus</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -15160,27 +15613,27 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="F53" t="n">
-        <v>114145</v>
+        <v>1358158</v>
       </c>
       <c r="G53" t="n">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="H53" s="2" t="n">
-        <v>0.5903650000000001</v>
+        <v>1.2580152</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>run-20260122_204258</t>
+          <t>run-20260125_215614</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>tools-safe-shell</t>
+          <t>tools-plus</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -15194,27 +15647,27 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="F54" t="n">
-        <v>100465</v>
+        <v>238888</v>
       </c>
       <c r="G54" t="n">
-        <v>52</v>
+        <v>77</v>
       </c>
       <c r="H54" s="2" t="n">
-        <v>0.46988925</v>
+        <v>1.536813699999999</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>run-20260122_214409</t>
+          <t>run-20260126_085903</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>tools-safe-shell</t>
+          <t>tools-plus</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -15231,24 +15684,24 @@
         <v>100</v>
       </c>
       <c r="F55" t="n">
-        <v>103486</v>
+        <v>269059</v>
       </c>
       <c r="G55" t="n">
-        <v>55</v>
+        <v>81</v>
       </c>
       <c r="H55" s="2" t="n">
-        <v>0.52040875</v>
+        <v>1.385587950000001</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>run-20260123_085101</t>
+          <t>run-20260126_115815</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>tools-safe-shell</t>
+          <t>tools-plus</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -15265,24 +15718,24 @@
         <v>95</v>
       </c>
       <c r="F56" t="n">
-        <v>96244</v>
+        <v>194746</v>
       </c>
       <c r="G56" t="n">
-        <v>52</v>
+        <v>72</v>
       </c>
       <c r="H56" s="2" t="n">
-        <v>0.47462775</v>
+        <v>0.8545308000000006</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>run-20260122_183028</t>
+          <t>run-20260123_145235</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>tools-safe-shell</t>
+          <t>tools-plus</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -15296,27 +15749,27 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="F57" t="n">
-        <v>51115</v>
+        <v>175019</v>
       </c>
       <c r="G57" t="n">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="H57" s="2" t="n">
-        <v>0.21459115</v>
+        <v>0.5743810000000001</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>run-20260122_193640</t>
+          <t>run-20260125_202427</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>tools-safe-shell</t>
+          <t>tools-plus</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -15330,27 +15783,27 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="F58" t="n">
-        <v>51939</v>
+        <v>118588</v>
       </c>
       <c r="G58" t="n">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="H58" s="2" t="n">
-        <v>0.21402425</v>
+        <v>0.4499424499999999</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>run-20260122_204258</t>
+          <t>run-20260125_215614</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>tools-safe-shell</t>
+          <t>tools-plus</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -15367,24 +15820,24 @@
         <v>95</v>
       </c>
       <c r="F59" t="n">
-        <v>64382</v>
+        <v>114120</v>
       </c>
       <c r="G59" t="n">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="H59" s="2" t="n">
-        <v>0.2485585</v>
+        <v>0.5184267499999998</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>run-20260122_214409</t>
+          <t>run-20260126_085903</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>tools-safe-shell</t>
+          <t>tools-plus</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -15398,27 +15851,27 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="F60" t="n">
-        <v>68372</v>
+        <v>214990</v>
       </c>
       <c r="G60" t="n">
-        <v>31</v>
+        <v>65</v>
       </c>
       <c r="H60" s="2" t="n">
-        <v>0.28578925</v>
+        <v>1.076247350000001</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>run-20260123_085101</t>
+          <t>run-20260126_115815</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>tools-safe-shell</t>
+          <t>tools-plus</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -15435,24 +15888,24 @@
         <v>95</v>
       </c>
       <c r="F61" t="n">
-        <v>56804</v>
+        <v>412291</v>
       </c>
       <c r="G61" t="n">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="H61" s="2" t="n">
-        <v>0.21356775</v>
+        <v>2.2502788</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>run-20260122_183028</t>
+          <t>run-20260123_145235</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>tools-safe-shell</t>
+          <t>tools-plus</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -15466,27 +15919,27 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="F62" t="n">
-        <v>68875</v>
+        <v>194448</v>
       </c>
       <c r="G62" t="n">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="H62" s="2" t="n">
-        <v>0.3187902500000001</v>
+        <v>0.7997267500000005</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>run-20260122_193640</t>
+          <t>run-20260125_202427</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>tools-safe-shell</t>
+          <t>tools-plus</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -15500,27 +15953,27 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="F63" t="n">
-        <v>80985</v>
+        <v>334332</v>
       </c>
       <c r="G63" t="n">
-        <v>48</v>
+        <v>81</v>
       </c>
       <c r="H63" s="2" t="n">
-        <v>0.41979275</v>
+        <v>2.252663449999999</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>run-20260122_204258</t>
+          <t>run-20260125_215614</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>tools-safe-shell</t>
+          <t>tools-plus</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -15534,27 +15987,27 @@
         </is>
       </c>
       <c r="E64" t="n">
+        <v>100</v>
+      </c>
+      <c r="F64" t="n">
+        <v>263316</v>
+      </c>
+      <c r="G64" t="n">
         <v>72</v>
       </c>
-      <c r="F64" t="n">
-        <v>92419</v>
-      </c>
-      <c r="G64" t="n">
-        <v>59</v>
-      </c>
       <c r="H64" s="2" t="n">
-        <v>0.49469675</v>
+        <v>1.1619051</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>run-20260122_214409</t>
+          <t>run-20260126_085903</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>tools-safe-shell</t>
+          <t>tools-plus</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -15568,27 +16021,27 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="F65" t="n">
-        <v>74168</v>
+        <v>189425</v>
       </c>
       <c r="G65" t="n">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="H65" s="2" t="n">
-        <v>0.36798625</v>
+        <v>1.165037849999999</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>run-20260123_085101</t>
+          <t>run-20260126_115815</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>tools-safe-shell</t>
+          <t>tools-plus</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -15602,27 +16055,27 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="F66" t="n">
-        <v>94276</v>
+        <v>202432</v>
       </c>
       <c r="G66" t="n">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="H66" s="2" t="n">
-        <v>0.4969862500000001</v>
+        <v>1.220068949999999</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>run-20260122_183028</t>
+          <t>run-20260123_145235</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>tools-safe-shell</t>
+          <t>tools-plus</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -15636,27 +16089,27 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="F67" t="n">
-        <v>78841</v>
+        <v>218053</v>
       </c>
       <c r="G67" t="n">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="H67" s="2" t="n">
-        <v>0.43110425</v>
+        <v>1.15555395</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>run-20260122_193640</t>
+          <t>run-20260125_202427</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>tools-safe-shell</t>
+          <t>tools-plus</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -15670,27 +16123,27 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="F68" t="n">
-        <v>62382</v>
+        <v>168439</v>
       </c>
       <c r="G68" t="n">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="H68" s="2" t="n">
-        <v>0.30898375</v>
+        <v>0.6880152499999999</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>run-20260122_204258</t>
+          <t>run-20260125_215614</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>tools-safe-shell</t>
+          <t>tools-plus</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -15704,27 +16157,27 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="F69" t="n">
-        <v>76811</v>
+        <v>238573</v>
       </c>
       <c r="G69" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H69" s="2" t="n">
-        <v>0.4685315</v>
+        <v>1.39040295</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>run-20260122_214409</t>
+          <t>run-20260126_085903</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>tools-safe-shell</t>
+          <t>tools-plus</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -15738,27 +16191,27 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F70" t="n">
-        <v>93092</v>
+        <v>190743</v>
       </c>
       <c r="G70" t="n">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="H70" s="2" t="n">
-        <v>0.4788319999999999</v>
+        <v>0.7827785499999996</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>run-20260123_085101</t>
+          <t>run-20260126_115815</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>tools-safe-shell</t>
+          <t>tools-plus</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -15772,27 +16225,27 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F71" t="n">
-        <v>63486</v>
+        <v>233093</v>
       </c>
       <c r="G71" t="n">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="H71" s="2" t="n">
-        <v>0.3640599999999999</v>
+        <v>1.888088249999999</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>run-20260122_183028</t>
+          <t>run-20260123_145235</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>tools-safe-shell</t>
+          <t>tools-plus</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -15809,24 +16262,24 @@
         <v>100</v>
       </c>
       <c r="F72" t="n">
-        <v>70054</v>
+        <v>284758</v>
       </c>
       <c r="G72" t="n">
-        <v>26</v>
+        <v>62</v>
       </c>
       <c r="H72" s="2" t="n">
-        <v>0.25067675</v>
+        <v>1.077472050000001</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>run-20260122_193640</t>
+          <t>run-20260125_202427</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>tools-safe-shell</t>
+          <t>tools-plus</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -15843,24 +16296,24 @@
         <v>100</v>
       </c>
       <c r="F73" t="n">
-        <v>93184</v>
+        <v>295925</v>
       </c>
       <c r="G73" t="n">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="H73" s="2" t="n">
-        <v>0.5178715</v>
+        <v>1.5833656</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>run-20260122_204258</t>
+          <t>run-20260125_215614</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>tools-safe-shell</t>
+          <t>tools-plus</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -15877,24 +16330,24 @@
         <v>100</v>
       </c>
       <c r="F74" t="n">
-        <v>70021</v>
+        <v>165860</v>
       </c>
       <c r="G74" t="n">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="H74" s="2" t="n">
-        <v>0.31656025</v>
+        <v>1.150656000000001</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>run-20260122_214409</t>
+          <t>run-20260126_085903</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>tools-safe-shell</t>
+          <t>tools-plus</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -15911,24 +16364,24 @@
         <v>100</v>
       </c>
       <c r="F75" t="n">
-        <v>65269</v>
+        <v>233264</v>
       </c>
       <c r="G75" t="n">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="H75" s="2" t="n">
-        <v>0.3507844999999999</v>
+        <v>0.9567266999999999</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>run-20260123_085101</t>
+          <t>run-20260126_115815</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>tools-safe-shell</t>
+          <t>tools-plus</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -15945,13 +16398,13 @@
         <v>100</v>
       </c>
       <c r="F76" t="n">
-        <v>85114</v>
+        <v>229743</v>
       </c>
       <c r="G76" t="n">
-        <v>36</v>
+        <v>64</v>
       </c>
       <c r="H76" s="2" t="n">
-        <v>0.309195</v>
+        <v>1.543962799999999</v>
       </c>
     </row>
   </sheetData>
@@ -15965,7 +16418,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H376"/>
+  <dimension ref="A1:H76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16028,17 +16481,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>run-20260121_133310</t>
+          <t>run-20260122_183028</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>safe-shell</t>
+          <t>tools-safe-shell</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>high-cpu-usage</t>
+          <t>connection-exhaustion</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -16050,6 +16503,2627 @@
         <v>98</v>
       </c>
       <c r="F2" t="n">
+        <v>69068</v>
+      </c>
+      <c r="G2" t="n">
+        <v>34</v>
+      </c>
+      <c r="H2" s="2" t="n">
+        <v>0.36595</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>run-20260122_193640</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>tools-safe-shell</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>connection-exhaustion</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>100</v>
+      </c>
+      <c r="F3" t="n">
+        <v>88102</v>
+      </c>
+      <c r="G3" t="n">
+        <v>49</v>
+      </c>
+      <c r="H3" s="2" t="n">
+        <v>0.5138509999999999</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>run-20260122_204258</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>tools-safe-shell</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>connection-exhaustion</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>98</v>
+      </c>
+      <c r="F4" t="n">
+        <v>65092</v>
+      </c>
+      <c r="G4" t="n">
+        <v>32</v>
+      </c>
+      <c r="H4" s="2" t="n">
+        <v>0.34855475</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>run-20260122_214409</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>tools-safe-shell</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>connection-exhaustion</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>100</v>
+      </c>
+      <c r="F5" t="n">
+        <v>62876</v>
+      </c>
+      <c r="G5" t="n">
+        <v>34</v>
+      </c>
+      <c r="H5" s="2" t="n">
+        <v>0.3395489999999999</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>run-20260123_085101</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>tools-safe-shell</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>connection-exhaustion</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>100</v>
+      </c>
+      <c r="F6" t="n">
+        <v>87827</v>
+      </c>
+      <c r="G6" t="n">
+        <v>55</v>
+      </c>
+      <c r="H6" s="2" t="n">
+        <v>0.46434825</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>run-20260122_183028</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>tools-safe-shell</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>context-switching-storm</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>100</v>
+      </c>
+      <c r="F7" t="n">
+        <v>110084</v>
+      </c>
+      <c r="G7" t="n">
+        <v>37</v>
+      </c>
+      <c r="H7" s="2" t="n">
+        <v>0.46550025</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>run-20260122_193640</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>tools-safe-shell</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>context-switching-storm</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>95</v>
+      </c>
+      <c r="F8" t="n">
+        <v>73881</v>
+      </c>
+      <c r="G8" t="n">
+        <v>31</v>
+      </c>
+      <c r="H8" s="2" t="n">
+        <v>0.3233595</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>run-20260122_204258</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>tools-safe-shell</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>context-switching-storm</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>52</v>
+      </c>
+      <c r="F9" t="n">
+        <v>63427</v>
+      </c>
+      <c r="G9" t="n">
+        <v>28</v>
+      </c>
+      <c r="H9" s="2" t="n">
+        <v>0.285308</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>run-20260122_214409</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>tools-safe-shell</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>context-switching-storm</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>100</v>
+      </c>
+      <c r="F10" t="n">
+        <v>83137</v>
+      </c>
+      <c r="G10" t="n">
+        <v>32</v>
+      </c>
+      <c r="H10" s="2" t="n">
+        <v>0.3798144999999999</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>run-20260123_085101</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>tools-safe-shell</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>context-switching-storm</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>100</v>
+      </c>
+      <c r="F11" t="n">
+        <v>96010</v>
+      </c>
+      <c r="G11" t="n">
+        <v>42</v>
+      </c>
+      <c r="H11" s="2" t="n">
+        <v>0.485843</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>run-20260122_183028</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>tools-safe-shell</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>disk-space-full</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>88</v>
+      </c>
+      <c r="F12" t="n">
+        <v>1095196</v>
+      </c>
+      <c r="G12" t="n">
+        <v>41</v>
+      </c>
+      <c r="H12" s="2" t="n">
+        <v>0.2971765</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>run-20260122_193640</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>tools-safe-shell</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>disk-space-full</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>88</v>
+      </c>
+      <c r="F13" t="n">
+        <v>90891</v>
+      </c>
+      <c r="G13" t="n">
+        <v>47</v>
+      </c>
+      <c r="H13" s="2" t="n">
+        <v>0.34782525</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>run-20260122_204258</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>tools-safe-shell</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>disk-space-full</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>78</v>
+      </c>
+      <c r="F14" t="n">
+        <v>94383</v>
+      </c>
+      <c r="G14" t="n">
+        <v>52</v>
+      </c>
+      <c r="H14" s="2" t="n">
+        <v>0.4175235</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>run-20260122_214409</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>tools-safe-shell</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>disk-space-full</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>92</v>
+      </c>
+      <c r="F15" t="n">
+        <v>64621</v>
+      </c>
+      <c r="G15" t="n">
+        <v>33</v>
+      </c>
+      <c r="H15" s="2" t="n">
+        <v>0.27765725</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>run-20260123_085101</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>tools-safe-shell</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>disk-space-full</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>95</v>
+      </c>
+      <c r="F16" t="n">
+        <v>88423</v>
+      </c>
+      <c r="G16" t="n">
+        <v>45</v>
+      </c>
+      <c r="H16" s="2" t="n">
+        <v>0.376963</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>run-20260122_183028</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>tools-safe-shell</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>dns-resolution-failure</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>100</v>
+      </c>
+      <c r="F17" t="n">
+        <v>65243</v>
+      </c>
+      <c r="G17" t="n">
+        <v>29</v>
+      </c>
+      <c r="H17" s="2" t="n">
+        <v>0.26042025</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>run-20260122_193640</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>tools-safe-shell</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>dns-resolution-failure</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v>100</v>
+      </c>
+      <c r="F18" t="n">
+        <v>69904</v>
+      </c>
+      <c r="G18" t="n">
+        <v>30</v>
+      </c>
+      <c r="H18" s="2" t="n">
+        <v>0.26132115</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>run-20260122_204258</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>tools-safe-shell</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>dns-resolution-failure</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>98</v>
+      </c>
+      <c r="F19" t="n">
+        <v>65004</v>
+      </c>
+      <c r="G19" t="n">
+        <v>33</v>
+      </c>
+      <c r="H19" s="2" t="n">
+        <v>0.25164325</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>run-20260122_214409</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>tools-safe-shell</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>dns-resolution-failure</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="E20" t="n">
+        <v>100</v>
+      </c>
+      <c r="F20" t="n">
+        <v>63298</v>
+      </c>
+      <c r="G20" t="n">
+        <v>26</v>
+      </c>
+      <c r="H20" s="2" t="n">
+        <v>0.22349675</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>run-20260123_085101</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>tools-safe-shell</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>dns-resolution-failure</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>100</v>
+      </c>
+      <c r="F21" t="n">
+        <v>62684</v>
+      </c>
+      <c r="G21" t="n">
+        <v>23</v>
+      </c>
+      <c r="H21" s="2" t="n">
+        <v>0.24438775</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>run-20260122_183028</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>tools-safe-shell</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>file-descriptor-leak</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="E22" t="n">
+        <v>100</v>
+      </c>
+      <c r="F22" t="n">
+        <v>89221</v>
+      </c>
+      <c r="G22" t="n">
+        <v>50</v>
+      </c>
+      <c r="H22" s="2" t="n">
+        <v>0.41022475</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>run-20260122_193640</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>tools-safe-shell</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>file-descriptor-leak</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="E23" t="n">
+        <v>100</v>
+      </c>
+      <c r="F23" t="n">
+        <v>830290</v>
+      </c>
+      <c r="G23" t="n">
+        <v>39</v>
+      </c>
+      <c r="H23" s="2" t="n">
+        <v>0.25698275</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>run-20260122_204258</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>tools-safe-shell</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>file-descriptor-leak</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="E24" t="n">
+        <v>100</v>
+      </c>
+      <c r="F24" t="n">
+        <v>74865</v>
+      </c>
+      <c r="G24" t="n">
+        <v>37</v>
+      </c>
+      <c r="H24" s="2" t="n">
+        <v>0.32762675</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>run-20260122_214409</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>tools-safe-shell</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>file-descriptor-leak</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="E25" t="n">
+        <v>100</v>
+      </c>
+      <c r="F25" t="n">
+        <v>88880</v>
+      </c>
+      <c r="G25" t="n">
+        <v>43</v>
+      </c>
+      <c r="H25" s="2" t="n">
+        <v>0.41488025</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>run-20260123_085101</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>tools-safe-shell</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>file-descriptor-leak</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="E26" t="n">
+        <v>100</v>
+      </c>
+      <c r="F26" t="n">
+        <v>70630</v>
+      </c>
+      <c r="G26" t="n">
+        <v>35</v>
+      </c>
+      <c r="H26" s="2" t="n">
+        <v>0.28668275</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>run-20260122_183028</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>tools-safe-shell</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>high-cpu-usage</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="E27" t="n">
+        <v>88</v>
+      </c>
+      <c r="F27" t="n">
+        <v>75669</v>
+      </c>
+      <c r="G27" t="n">
+        <v>36</v>
+      </c>
+      <c r="H27" s="2" t="n">
+        <v>0.4621927</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>run-20260122_193640</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>tools-safe-shell</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>high-cpu-usage</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="E28" t="n">
+        <v>100</v>
+      </c>
+      <c r="F28" t="n">
+        <v>64201</v>
+      </c>
+      <c r="G28" t="n">
+        <v>30</v>
+      </c>
+      <c r="H28" s="2" t="n">
+        <v>0.4109643000000001</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>run-20260122_204258</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>tools-safe-shell</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>high-cpu-usage</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="E29" t="n">
+        <v>100</v>
+      </c>
+      <c r="F29" t="n">
+        <v>58704</v>
+      </c>
+      <c r="G29" t="n">
+        <v>27</v>
+      </c>
+      <c r="H29" s="2" t="n">
+        <v>0.37736105</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>run-20260122_214409</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>tools-safe-shell</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>high-cpu-usage</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="E30" t="n">
+        <v>98</v>
+      </c>
+      <c r="F30" t="n">
+        <v>51664</v>
+      </c>
+      <c r="G30" t="n">
+        <v>24</v>
+      </c>
+      <c r="H30" s="2" t="n">
+        <v>0.3562793</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>run-20260123_085101</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>tools-safe-shell</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>high-cpu-usage</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="E31" t="n">
+        <v>100</v>
+      </c>
+      <c r="F31" t="n">
+        <v>62502</v>
+      </c>
+      <c r="G31" t="n">
+        <v>28</v>
+      </c>
+      <c r="H31" s="2" t="n">
+        <v>0.414873</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>run-20260122_183028</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>tools-safe-shell</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>inode-exhaustion</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="E32" t="n">
+        <v>15</v>
+      </c>
+      <c r="F32" t="n">
+        <v>110756</v>
+      </c>
+      <c r="G32" t="n">
+        <v>56</v>
+      </c>
+      <c r="H32" s="2" t="n">
+        <v>0.5701437499999999</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>run-20260122_193640</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>tools-safe-shell</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>inode-exhaustion</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="E33" t="n">
+        <v>5</v>
+      </c>
+      <c r="F33" t="n">
+        <v>106345</v>
+      </c>
+      <c r="G33" t="n">
+        <v>47</v>
+      </c>
+      <c r="H33" s="2" t="n">
+        <v>0.5030812500000001</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>run-20260122_204258</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>tools-safe-shell</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>inode-exhaustion</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="E34" t="n">
+        <v>15</v>
+      </c>
+      <c r="F34" t="n">
+        <v>112029</v>
+      </c>
+      <c r="G34" t="n">
+        <v>54</v>
+      </c>
+      <c r="H34" s="2" t="n">
+        <v>0.53521475</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>run-20260122_214409</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>tools-safe-shell</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>inode-exhaustion</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="E35" t="n">
+        <v>15</v>
+      </c>
+      <c r="F35" t="n">
+        <v>111562</v>
+      </c>
+      <c r="G35" t="n">
+        <v>63</v>
+      </c>
+      <c r="H35" s="2" t="n">
+        <v>0.5409475</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>run-20260123_085101</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>tools-safe-shell</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>inode-exhaustion</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="E36" t="n">
+        <v>15</v>
+      </c>
+      <c r="F36" t="n">
+        <v>85001</v>
+      </c>
+      <c r="G36" t="n">
+        <v>45</v>
+      </c>
+      <c r="H36" s="2" t="n">
+        <v>0.4246069999999999</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>run-20260122_183028</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>tools-safe-shell</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>io-wait</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="E37" t="n">
+        <v>92</v>
+      </c>
+      <c r="F37" t="n">
+        <v>83648</v>
+      </c>
+      <c r="G37" t="n">
+        <v>47</v>
+      </c>
+      <c r="H37" s="2" t="n">
+        <v>0.3502466</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>run-20260122_193640</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>tools-safe-shell</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>io-wait</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="E38" t="n">
+        <v>62</v>
+      </c>
+      <c r="F38" t="n">
+        <v>103300</v>
+      </c>
+      <c r="G38" t="n">
+        <v>51</v>
+      </c>
+      <c r="H38" s="2" t="n">
+        <v>0.4603495</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>run-20260122_204258</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>tools-safe-shell</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>io-wait</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="E39" t="n">
+        <v>78</v>
+      </c>
+      <c r="F39" t="n">
+        <v>112149</v>
+      </c>
+      <c r="G39" t="n">
+        <v>46</v>
+      </c>
+      <c r="H39" s="2" t="n">
+        <v>0.40489</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>run-20260122_214409</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>tools-safe-shell</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>io-wait</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="E40" t="n">
+        <v>35</v>
+      </c>
+      <c r="F40" t="n">
+        <v>122057</v>
+      </c>
+      <c r="G40" t="n">
+        <v>60</v>
+      </c>
+      <c r="H40" s="2" t="n">
+        <v>0.5117350000000001</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>run-20260123_085101</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>tools-safe-shell</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>io-wait</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="E41" t="n">
+        <v>88</v>
+      </c>
+      <c r="F41" t="n">
+        <v>80187</v>
+      </c>
+      <c r="G41" t="n">
+        <v>45</v>
+      </c>
+      <c r="H41" s="2" t="n">
+        <v>0.34154975</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>run-20260122_183028</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>tools-safe-shell</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>log-rotation-failure</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="E42" t="n">
+        <v>25</v>
+      </c>
+      <c r="F42" t="n">
+        <v>108108</v>
+      </c>
+      <c r="G42" t="n">
+        <v>69</v>
+      </c>
+      <c r="H42" s="2" t="n">
+        <v>0.5408887499999999</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>run-20260122_193640</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>tools-safe-shell</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>log-rotation-failure</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="E43" t="n">
+        <v>52</v>
+      </c>
+      <c r="F43" t="n">
+        <v>113512</v>
+      </c>
+      <c r="G43" t="n">
+        <v>61</v>
+      </c>
+      <c r="H43" s="2" t="n">
+        <v>0.6240165000000001</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>run-20260122_204258</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>tools-safe-shell</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>log-rotation-failure</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="E44" t="n">
+        <v>5</v>
+      </c>
+      <c r="F44" t="n">
+        <v>129810</v>
+      </c>
+      <c r="G44" t="n">
+        <v>80</v>
+      </c>
+      <c r="H44" s="2" t="n">
+        <v>0.6782764999999999</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>run-20260122_214409</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>tools-safe-shell</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>log-rotation-failure</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="E45" t="n">
+        <v>15</v>
+      </c>
+      <c r="F45" t="n">
+        <v>119135</v>
+      </c>
+      <c r="G45" t="n">
+        <v>68</v>
+      </c>
+      <c r="H45" s="2" t="n">
+        <v>0.6710394999999999</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>run-20260123_085101</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>tools-safe-shell</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>log-rotation-failure</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="E46" t="n">
+        <v>25</v>
+      </c>
+      <c r="F46" t="n">
+        <v>134357</v>
+      </c>
+      <c r="G46" t="n">
+        <v>78</v>
+      </c>
+      <c r="H46" s="2" t="n">
+        <v>0.7485994999999999</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>run-20260122_183028</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>tools-safe-shell</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>memory-leak</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="E47" t="n">
+        <v>100</v>
+      </c>
+      <c r="F47" t="n">
+        <v>77543</v>
+      </c>
+      <c r="G47" t="n">
+        <v>26</v>
+      </c>
+      <c r="H47" s="2" t="n">
+        <v>0.25324365</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>run-20260122_193640</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>tools-safe-shell</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>memory-leak</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="E48" t="n">
+        <v>100</v>
+      </c>
+      <c r="F48" t="n">
+        <v>87362</v>
+      </c>
+      <c r="G48" t="n">
+        <v>29</v>
+      </c>
+      <c r="H48" s="2" t="n">
+        <v>0.274129</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>run-20260122_204258</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>tools-safe-shell</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>memory-leak</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="E49" t="n">
+        <v>100</v>
+      </c>
+      <c r="F49" t="n">
+        <v>82441</v>
+      </c>
+      <c r="G49" t="n">
+        <v>32</v>
+      </c>
+      <c r="H49" s="2" t="n">
+        <v>0.28463725</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>run-20260122_214409</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>tools-safe-shell</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>memory-leak</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="E50" t="n">
+        <v>100</v>
+      </c>
+      <c r="F50" t="n">
+        <v>84148</v>
+      </c>
+      <c r="G50" t="n">
+        <v>34</v>
+      </c>
+      <c r="H50" s="2" t="n">
+        <v>0.3117405</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>run-20260123_085101</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>tools-safe-shell</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>memory-leak</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="E51" t="n">
+        <v>98</v>
+      </c>
+      <c r="F51" t="n">
+        <v>62432</v>
+      </c>
+      <c r="G51" t="n">
+        <v>29</v>
+      </c>
+      <c r="H51" s="2" t="n">
+        <v>0.29294425</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>run-20260122_183028</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>tools-safe-shell</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>port-conflict</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="E52" t="n">
+        <v>100</v>
+      </c>
+      <c r="F52" t="n">
+        <v>127932</v>
+      </c>
+      <c r="G52" t="n">
+        <v>78</v>
+      </c>
+      <c r="H52" s="2" t="n">
+        <v>0.8262660000000001</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>run-20260122_193640</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>tools-safe-shell</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>port-conflict</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="E53" t="n">
+        <v>95</v>
+      </c>
+      <c r="F53" t="n">
+        <v>114145</v>
+      </c>
+      <c r="G53" t="n">
+        <v>68</v>
+      </c>
+      <c r="H53" s="2" t="n">
+        <v>0.5903650000000001</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>run-20260122_204258</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>tools-safe-shell</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>port-conflict</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="E54" t="n">
+        <v>100</v>
+      </c>
+      <c r="F54" t="n">
+        <v>100465</v>
+      </c>
+      <c r="G54" t="n">
+        <v>52</v>
+      </c>
+      <c r="H54" s="2" t="n">
+        <v>0.46988925</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>run-20260122_214409</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>tools-safe-shell</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>port-conflict</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="E55" t="n">
+        <v>100</v>
+      </c>
+      <c r="F55" t="n">
+        <v>103486</v>
+      </c>
+      <c r="G55" t="n">
+        <v>55</v>
+      </c>
+      <c r="H55" s="2" t="n">
+        <v>0.52040875</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>run-20260123_085101</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>tools-safe-shell</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>port-conflict</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="E56" t="n">
+        <v>95</v>
+      </c>
+      <c r="F56" t="n">
+        <v>96244</v>
+      </c>
+      <c r="G56" t="n">
+        <v>52</v>
+      </c>
+      <c r="H56" s="2" t="n">
+        <v>0.47462775</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>run-20260122_183028</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>tools-safe-shell</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>swap-thrashing</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="E57" t="n">
+        <v>92</v>
+      </c>
+      <c r="F57" t="n">
+        <v>51115</v>
+      </c>
+      <c r="G57" t="n">
+        <v>22</v>
+      </c>
+      <c r="H57" s="2" t="n">
+        <v>0.21459115</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>run-20260122_193640</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>tools-safe-shell</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>swap-thrashing</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="E58" t="n">
+        <v>95</v>
+      </c>
+      <c r="F58" t="n">
+        <v>51939</v>
+      </c>
+      <c r="G58" t="n">
+        <v>25</v>
+      </c>
+      <c r="H58" s="2" t="n">
+        <v>0.21402425</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>run-20260122_204258</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>tools-safe-shell</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>swap-thrashing</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="E59" t="n">
+        <v>95</v>
+      </c>
+      <c r="F59" t="n">
+        <v>64382</v>
+      </c>
+      <c r="G59" t="n">
+        <v>26</v>
+      </c>
+      <c r="H59" s="2" t="n">
+        <v>0.2485585</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>run-20260122_214409</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>tools-safe-shell</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>swap-thrashing</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="E60" t="n">
+        <v>92</v>
+      </c>
+      <c r="F60" t="n">
+        <v>68372</v>
+      </c>
+      <c r="G60" t="n">
+        <v>31</v>
+      </c>
+      <c r="H60" s="2" t="n">
+        <v>0.28578925</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>run-20260123_085101</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>tools-safe-shell</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>swap-thrashing</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="E61" t="n">
+        <v>95</v>
+      </c>
+      <c r="F61" t="n">
+        <v>56804</v>
+      </c>
+      <c r="G61" t="n">
+        <v>23</v>
+      </c>
+      <c r="H61" s="2" t="n">
+        <v>0.21356775</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>run-20260122_183028</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>tools-safe-shell</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>tcp-close-wait</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="E62" t="n">
+        <v>88</v>
+      </c>
+      <c r="F62" t="n">
+        <v>68875</v>
+      </c>
+      <c r="G62" t="n">
+        <v>38</v>
+      </c>
+      <c r="H62" s="2" t="n">
+        <v>0.3187902500000001</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>run-20260122_193640</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>tools-safe-shell</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>tcp-close-wait</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="E63" t="n">
+        <v>92</v>
+      </c>
+      <c r="F63" t="n">
+        <v>80985</v>
+      </c>
+      <c r="G63" t="n">
+        <v>48</v>
+      </c>
+      <c r="H63" s="2" t="n">
+        <v>0.41979275</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>run-20260122_204258</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>tools-safe-shell</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>tcp-close-wait</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="E64" t="n">
+        <v>72</v>
+      </c>
+      <c r="F64" t="n">
+        <v>92419</v>
+      </c>
+      <c r="G64" t="n">
+        <v>59</v>
+      </c>
+      <c r="H64" s="2" t="n">
+        <v>0.49469675</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>run-20260122_214409</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>tools-safe-shell</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>tcp-close-wait</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="E65" t="n">
+        <v>82</v>
+      </c>
+      <c r="F65" t="n">
+        <v>74168</v>
+      </c>
+      <c r="G65" t="n">
+        <v>43</v>
+      </c>
+      <c r="H65" s="2" t="n">
+        <v>0.36798625</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>run-20260123_085101</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>tools-safe-shell</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>tcp-close-wait</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="E66" t="n">
+        <v>95</v>
+      </c>
+      <c r="F66" t="n">
+        <v>94276</v>
+      </c>
+      <c r="G66" t="n">
+        <v>55</v>
+      </c>
+      <c r="H66" s="2" t="n">
+        <v>0.4969862500000001</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>run-20260122_183028</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>tools-safe-shell</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>tcp-syn-flood</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="E67" t="n">
+        <v>10</v>
+      </c>
+      <c r="F67" t="n">
+        <v>78841</v>
+      </c>
+      <c r="G67" t="n">
+        <v>39</v>
+      </c>
+      <c r="H67" s="2" t="n">
+        <v>0.43110425</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>run-20260122_193640</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>tools-safe-shell</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>tcp-syn-flood</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="E68" t="n">
+        <v>10</v>
+      </c>
+      <c r="F68" t="n">
+        <v>62382</v>
+      </c>
+      <c r="G68" t="n">
+        <v>30</v>
+      </c>
+      <c r="H68" s="2" t="n">
+        <v>0.30898375</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>run-20260122_204258</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>tools-safe-shell</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>tcp-syn-flood</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="E69" t="n">
+        <v>15</v>
+      </c>
+      <c r="F69" t="n">
+        <v>76811</v>
+      </c>
+      <c r="G69" t="n">
+        <v>39</v>
+      </c>
+      <c r="H69" s="2" t="n">
+        <v>0.4685315</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>run-20260122_214409</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>tools-safe-shell</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>tcp-syn-flood</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="E70" t="n">
+        <v>15</v>
+      </c>
+      <c r="F70" t="n">
+        <v>93092</v>
+      </c>
+      <c r="G70" t="n">
+        <v>56</v>
+      </c>
+      <c r="H70" s="2" t="n">
+        <v>0.4788319999999999</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>run-20260123_085101</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>tools-safe-shell</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>tcp-syn-flood</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="E71" t="n">
+        <v>5</v>
+      </c>
+      <c r="F71" t="n">
+        <v>63486</v>
+      </c>
+      <c r="G71" t="n">
+        <v>35</v>
+      </c>
+      <c r="H71" s="2" t="n">
+        <v>0.3640599999999999</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>run-20260122_183028</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>tools-safe-shell</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>zombie-processes</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="E72" t="n">
+        <v>100</v>
+      </c>
+      <c r="F72" t="n">
+        <v>70054</v>
+      </c>
+      <c r="G72" t="n">
+        <v>26</v>
+      </c>
+      <c r="H72" s="2" t="n">
+        <v>0.25067675</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>run-20260122_193640</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>tools-safe-shell</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>zombie-processes</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="E73" t="n">
+        <v>100</v>
+      </c>
+      <c r="F73" t="n">
+        <v>93184</v>
+      </c>
+      <c r="G73" t="n">
+        <v>37</v>
+      </c>
+      <c r="H73" s="2" t="n">
+        <v>0.5178715</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>run-20260122_204258</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>tools-safe-shell</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>zombie-processes</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="E74" t="n">
+        <v>100</v>
+      </c>
+      <c r="F74" t="n">
+        <v>70021</v>
+      </c>
+      <c r="G74" t="n">
+        <v>36</v>
+      </c>
+      <c r="H74" s="2" t="n">
+        <v>0.31656025</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>run-20260122_214409</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>tools-safe-shell</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>zombie-processes</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="E75" t="n">
+        <v>100</v>
+      </c>
+      <c r="F75" t="n">
+        <v>65269</v>
+      </c>
+      <c r="G75" t="n">
+        <v>33</v>
+      </c>
+      <c r="H75" s="2" t="n">
+        <v>0.3507844999999999</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>run-20260123_085101</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>tools-safe-shell</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>zombie-processes</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="E76" t="n">
+        <v>100</v>
+      </c>
+      <c r="F76" t="n">
+        <v>85114</v>
+      </c>
+      <c r="G76" t="n">
+        <v>36</v>
+      </c>
+      <c r="H76" s="2" t="n">
+        <v>0.309195</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H451"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="21" customWidth="1" min="1" max="1"/>
+    <col width="18" customWidth="1" min="2" max="2"/>
+    <col width="25" customWidth="1" min="3" max="3"/>
+    <col width="11" customWidth="1" min="4" max="4"/>
+    <col width="15" customWidth="1" min="5" max="5"/>
+    <col width="13" customWidth="1" min="6" max="6"/>
+    <col width="7" customWidth="1" min="7" max="7"/>
+    <col width="21" customWidth="1" min="8" max="8"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>run</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>mode</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>scenario</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>status</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>overall_score</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>duration_ms</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>turns</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>cost</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>run-20260121_133310</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>safe-shell</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>high-cpu-usage</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>98</v>
+      </c>
+      <c r="F2" t="n">
         <v>76107</v>
       </c>
       <c r="G2" t="n">
@@ -28773,6 +31847,2556 @@
       </c>
       <c r="H376" s="2" t="n">
         <v>0.3640599999999999</v>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="inlineStr">
+        <is>
+          <t>run-20260123_145235</t>
+        </is>
+      </c>
+      <c r="B377" t="inlineStr">
+        <is>
+          <t>tools-plus</t>
+        </is>
+      </c>
+      <c r="C377" t="inlineStr">
+        <is>
+          <t>high-cpu-usage</t>
+        </is>
+      </c>
+      <c r="D377" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="E377" t="n">
+        <v>100</v>
+      </c>
+      <c r="F377" t="n">
+        <v>144843</v>
+      </c>
+      <c r="G377" t="n">
+        <v>29</v>
+      </c>
+      <c r="H377" s="2" t="n">
+        <v>0.5742331500000002</v>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="inlineStr">
+        <is>
+          <t>run-20260123_145235</t>
+        </is>
+      </c>
+      <c r="B378" t="inlineStr">
+        <is>
+          <t>tools-plus</t>
+        </is>
+      </c>
+      <c r="C378" t="inlineStr">
+        <is>
+          <t>disk-space-full</t>
+        </is>
+      </c>
+      <c r="D378" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="E378" t="n">
+        <v>95</v>
+      </c>
+      <c r="F378" t="n">
+        <v>206083</v>
+      </c>
+      <c r="G378" t="n">
+        <v>44</v>
+      </c>
+      <c r="H378" s="2" t="n">
+        <v>0.9840696499999999</v>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="inlineStr">
+        <is>
+          <t>run-20260123_145235</t>
+        </is>
+      </c>
+      <c r="B379" t="inlineStr">
+        <is>
+          <t>tools-plus</t>
+        </is>
+      </c>
+      <c r="C379" t="inlineStr">
+        <is>
+          <t>port-conflict</t>
+        </is>
+      </c>
+      <c r="D379" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="E379" t="n">
+        <v>95</v>
+      </c>
+      <c r="F379" t="n">
+        <v>262400</v>
+      </c>
+      <c r="G379" t="n">
+        <v>56</v>
+      </c>
+      <c r="H379" s="2" t="n">
+        <v>1.37345345</v>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="inlineStr">
+        <is>
+          <t>run-20260123_145235</t>
+        </is>
+      </c>
+      <c r="B380" t="inlineStr">
+        <is>
+          <t>tools-plus</t>
+        </is>
+      </c>
+      <c r="C380" t="inlineStr">
+        <is>
+          <t>zombie-processes</t>
+        </is>
+      </c>
+      <c r="D380" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="E380" t="n">
+        <v>100</v>
+      </c>
+      <c r="F380" t="n">
+        <v>284758</v>
+      </c>
+      <c r="G380" t="n">
+        <v>62</v>
+      </c>
+      <c r="H380" s="2" t="n">
+        <v>1.077472050000001</v>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="inlineStr">
+        <is>
+          <t>run-20260123_145235</t>
+        </is>
+      </c>
+      <c r="B381" t="inlineStr">
+        <is>
+          <t>tools-plus</t>
+        </is>
+      </c>
+      <c r="C381" t="inlineStr">
+        <is>
+          <t>dns-resolution-failure</t>
+        </is>
+      </c>
+      <c r="D381" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="E381" t="n">
+        <v>100</v>
+      </c>
+      <c r="F381" t="n">
+        <v>390664</v>
+      </c>
+      <c r="G381" t="n">
+        <v>59</v>
+      </c>
+      <c r="H381" s="2" t="n">
+        <v>1.17142455</v>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="inlineStr">
+        <is>
+          <t>run-20260123_145235</t>
+        </is>
+      </c>
+      <c r="B382" t="inlineStr">
+        <is>
+          <t>tools-plus</t>
+        </is>
+      </c>
+      <c r="C382" t="inlineStr">
+        <is>
+          <t>memory-leak</t>
+        </is>
+      </c>
+      <c r="D382" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="E382" t="n">
+        <v>100</v>
+      </c>
+      <c r="F382" t="n">
+        <v>131329</v>
+      </c>
+      <c r="G382" t="n">
+        <v>34</v>
+      </c>
+      <c r="H382" s="2" t="n">
+        <v>0.47137025</v>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="inlineStr">
+        <is>
+          <t>run-20260123_145235</t>
+        </is>
+      </c>
+      <c r="B383" t="inlineStr">
+        <is>
+          <t>tools-plus</t>
+        </is>
+      </c>
+      <c r="C383" t="inlineStr">
+        <is>
+          <t>connection-exhaustion</t>
+        </is>
+      </c>
+      <c r="D383" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="E383" t="n">
+        <v>92</v>
+      </c>
+      <c r="F383" t="n">
+        <v>284904</v>
+      </c>
+      <c r="G383" t="n">
+        <v>60</v>
+      </c>
+      <c r="H383" s="2" t="n">
+        <v>1.49584545</v>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="inlineStr">
+        <is>
+          <t>run-20260123_145235</t>
+        </is>
+      </c>
+      <c r="B384" t="inlineStr">
+        <is>
+          <t>tools-plus</t>
+        </is>
+      </c>
+      <c r="C384" t="inlineStr">
+        <is>
+          <t>log-rotation-failure</t>
+        </is>
+      </c>
+      <c r="D384" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="E384" t="n">
+        <v>35</v>
+      </c>
+      <c r="F384" t="n">
+        <v>248919</v>
+      </c>
+      <c r="G384" t="n">
+        <v>71</v>
+      </c>
+      <c r="H384" s="2" t="n">
+        <v>1.834066</v>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="inlineStr">
+        <is>
+          <t>run-20260123_145235</t>
+        </is>
+      </c>
+      <c r="B385" t="inlineStr">
+        <is>
+          <t>tools-plus</t>
+        </is>
+      </c>
+      <c r="C385" t="inlineStr">
+        <is>
+          <t>swap-thrashing</t>
+        </is>
+      </c>
+      <c r="D385" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="E385" t="n">
+        <v>98</v>
+      </c>
+      <c r="F385" t="n">
+        <v>175019</v>
+      </c>
+      <c r="G385" t="n">
+        <v>38</v>
+      </c>
+      <c r="H385" s="2" t="n">
+        <v>0.5743810000000001</v>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="inlineStr">
+        <is>
+          <t>run-20260123_145235</t>
+        </is>
+      </c>
+      <c r="B386" t="inlineStr">
+        <is>
+          <t>tools-plus</t>
+        </is>
+      </c>
+      <c r="C386" t="inlineStr">
+        <is>
+          <t>file-descriptor-leak</t>
+        </is>
+      </c>
+      <c r="D386" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="E386" t="n">
+        <v>100</v>
+      </c>
+      <c r="F386" t="n">
+        <v>154350</v>
+      </c>
+      <c r="G386" t="n">
+        <v>26</v>
+      </c>
+      <c r="H386" s="2" t="n">
+        <v>0.4955864500000001</v>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="inlineStr">
+        <is>
+          <t>run-20260123_145235</t>
+        </is>
+      </c>
+      <c r="B387" t="inlineStr">
+        <is>
+          <t>tools-plus</t>
+        </is>
+      </c>
+      <c r="C387" t="inlineStr">
+        <is>
+          <t>tcp-close-wait</t>
+        </is>
+      </c>
+      <c r="D387" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="E387" t="n">
+        <v>98</v>
+      </c>
+      <c r="F387" t="n">
+        <v>194448</v>
+      </c>
+      <c r="G387" t="n">
+        <v>43</v>
+      </c>
+      <c r="H387" s="2" t="n">
+        <v>0.7997267500000005</v>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="inlineStr">
+        <is>
+          <t>run-20260123_145235</t>
+        </is>
+      </c>
+      <c r="B388" t="inlineStr">
+        <is>
+          <t>tools-plus</t>
+        </is>
+      </c>
+      <c r="C388" t="inlineStr">
+        <is>
+          <t>io-wait</t>
+        </is>
+      </c>
+      <c r="D388" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="E388" t="n">
+        <v>45</v>
+      </c>
+      <c r="F388" t="n">
+        <v>428914</v>
+      </c>
+      <c r="G388" t="n">
+        <v>125</v>
+      </c>
+      <c r="H388" s="2" t="n">
+        <v>2.469203199999999</v>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="inlineStr">
+        <is>
+          <t>run-20260123_145235</t>
+        </is>
+      </c>
+      <c r="B389" t="inlineStr">
+        <is>
+          <t>tools-plus</t>
+        </is>
+      </c>
+      <c r="C389" t="inlineStr">
+        <is>
+          <t>context-switching-storm</t>
+        </is>
+      </c>
+      <c r="D389" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="E389" t="n">
+        <v>100</v>
+      </c>
+      <c r="F389" t="n">
+        <v>306965</v>
+      </c>
+      <c r="G389" t="n">
+        <v>47</v>
+      </c>
+      <c r="H389" s="2" t="n">
+        <v>1.52600355</v>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="inlineStr">
+        <is>
+          <t>run-20260123_145235</t>
+        </is>
+      </c>
+      <c r="B390" t="inlineStr">
+        <is>
+          <t>tools-plus</t>
+        </is>
+      </c>
+      <c r="C390" t="inlineStr">
+        <is>
+          <t>inode-exhaustion</t>
+        </is>
+      </c>
+      <c r="D390" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="E390" t="n">
+        <v>15</v>
+      </c>
+      <c r="F390" t="n">
+        <v>215852</v>
+      </c>
+      <c r="G390" t="n">
+        <v>75</v>
+      </c>
+      <c r="H390" s="2" t="n">
+        <v>1.16088745</v>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="inlineStr">
+        <is>
+          <t>run-20260123_145235</t>
+        </is>
+      </c>
+      <c r="B391" t="inlineStr">
+        <is>
+          <t>tools-plus</t>
+        </is>
+      </c>
+      <c r="C391" t="inlineStr">
+        <is>
+          <t>tcp-syn-flood</t>
+        </is>
+      </c>
+      <c r="D391" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="E391" t="n">
+        <v>35</v>
+      </c>
+      <c r="F391" t="n">
+        <v>218053</v>
+      </c>
+      <c r="G391" t="n">
+        <v>77</v>
+      </c>
+      <c r="H391" s="2" t="n">
+        <v>1.15555395</v>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="inlineStr">
+        <is>
+          <t>run-20260125_202427</t>
+        </is>
+      </c>
+      <c r="B392" t="inlineStr">
+        <is>
+          <t>tools-plus</t>
+        </is>
+      </c>
+      <c r="C392" t="inlineStr">
+        <is>
+          <t>high-cpu-usage</t>
+        </is>
+      </c>
+      <c r="D392" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="E392" t="n">
+        <v>100</v>
+      </c>
+      <c r="F392" t="n">
+        <v>241907</v>
+      </c>
+      <c r="G392" t="n">
+        <v>64</v>
+      </c>
+      <c r="H392" s="2" t="n">
+        <v>1.824407</v>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" t="inlineStr">
+        <is>
+          <t>run-20260125_202427</t>
+        </is>
+      </c>
+      <c r="B393" t="inlineStr">
+        <is>
+          <t>tools-plus</t>
+        </is>
+      </c>
+      <c r="C393" t="inlineStr">
+        <is>
+          <t>disk-space-full</t>
+        </is>
+      </c>
+      <c r="D393" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="E393" t="n">
+        <v>92</v>
+      </c>
+      <c r="F393" t="n">
+        <v>142428</v>
+      </c>
+      <c r="G393" t="n">
+        <v>58</v>
+      </c>
+      <c r="H393" s="2" t="n">
+        <v>0.7519880999999997</v>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="inlineStr">
+        <is>
+          <t>run-20260125_202427</t>
+        </is>
+      </c>
+      <c r="B394" t="inlineStr">
+        <is>
+          <t>tools-plus</t>
+        </is>
+      </c>
+      <c r="C394" t="inlineStr">
+        <is>
+          <t>port-conflict</t>
+        </is>
+      </c>
+      <c r="D394" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="E394" t="n">
+        <v>92</v>
+      </c>
+      <c r="F394" t="n">
+        <v>1358158</v>
+      </c>
+      <c r="G394" t="n">
+        <v>60</v>
+      </c>
+      <c r="H394" s="2" t="n">
+        <v>1.2580152</v>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="inlineStr">
+        <is>
+          <t>run-20260125_202427</t>
+        </is>
+      </c>
+      <c r="B395" t="inlineStr">
+        <is>
+          <t>tools-plus</t>
+        </is>
+      </c>
+      <c r="C395" t="inlineStr">
+        <is>
+          <t>zombie-processes</t>
+        </is>
+      </c>
+      <c r="D395" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="E395" t="n">
+        <v>100</v>
+      </c>
+      <c r="F395" t="n">
+        <v>295925</v>
+      </c>
+      <c r="G395" t="n">
+        <v>42</v>
+      </c>
+      <c r="H395" s="2" t="n">
+        <v>1.5833656</v>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="inlineStr">
+        <is>
+          <t>run-20260125_202427</t>
+        </is>
+      </c>
+      <c r="B396" t="inlineStr">
+        <is>
+          <t>tools-plus</t>
+        </is>
+      </c>
+      <c r="C396" t="inlineStr">
+        <is>
+          <t>dns-resolution-failure</t>
+        </is>
+      </c>
+      <c r="D396" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="E396" t="n">
+        <v>100</v>
+      </c>
+      <c r="F396" t="n">
+        <v>263948</v>
+      </c>
+      <c r="G396" t="n">
+        <v>59</v>
+      </c>
+      <c r="H396" s="2" t="n">
+        <v>1.53028875</v>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="inlineStr">
+        <is>
+          <t>run-20260125_202427</t>
+        </is>
+      </c>
+      <c r="B397" t="inlineStr">
+        <is>
+          <t>tools-plus</t>
+        </is>
+      </c>
+      <c r="C397" t="inlineStr">
+        <is>
+          <t>memory-leak</t>
+        </is>
+      </c>
+      <c r="D397" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="E397" t="n">
+        <v>100</v>
+      </c>
+      <c r="F397" t="n">
+        <v>212752</v>
+      </c>
+      <c r="G397" t="n">
+        <v>43</v>
+      </c>
+      <c r="H397" s="2" t="n">
+        <v>1.07591005</v>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="inlineStr">
+        <is>
+          <t>run-20260125_202427</t>
+        </is>
+      </c>
+      <c r="B398" t="inlineStr">
+        <is>
+          <t>tools-plus</t>
+        </is>
+      </c>
+      <c r="C398" t="inlineStr">
+        <is>
+          <t>connection-exhaustion</t>
+        </is>
+      </c>
+      <c r="D398" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="E398" t="n">
+        <v>100</v>
+      </c>
+      <c r="F398" t="n">
+        <v>153097</v>
+      </c>
+      <c r="G398" t="n">
+        <v>44</v>
+      </c>
+      <c r="H398" s="2" t="n">
+        <v>0.8873416500000002</v>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="inlineStr">
+        <is>
+          <t>run-20260125_202427</t>
+        </is>
+      </c>
+      <c r="B399" t="inlineStr">
+        <is>
+          <t>tools-plus</t>
+        </is>
+      </c>
+      <c r="C399" t="inlineStr">
+        <is>
+          <t>log-rotation-failure</t>
+        </is>
+      </c>
+      <c r="D399" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="E399" t="n">
+        <v>62</v>
+      </c>
+      <c r="F399" t="n">
+        <v>232976</v>
+      </c>
+      <c r="G399" t="n">
+        <v>64</v>
+      </c>
+      <c r="H399" s="2" t="n">
+        <v>0.91208315</v>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="inlineStr">
+        <is>
+          <t>run-20260125_202427</t>
+        </is>
+      </c>
+      <c r="B400" t="inlineStr">
+        <is>
+          <t>tools-plus</t>
+        </is>
+      </c>
+      <c r="C400" t="inlineStr">
+        <is>
+          <t>swap-thrashing</t>
+        </is>
+      </c>
+      <c r="D400" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="E400" t="n">
+        <v>92</v>
+      </c>
+      <c r="F400" t="n">
+        <v>118588</v>
+      </c>
+      <c r="G400" t="n">
+        <v>32</v>
+      </c>
+      <c r="H400" s="2" t="n">
+        <v>0.4499424499999999</v>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="inlineStr">
+        <is>
+          <t>run-20260125_202427</t>
+        </is>
+      </c>
+      <c r="B401" t="inlineStr">
+        <is>
+          <t>tools-plus</t>
+        </is>
+      </c>
+      <c r="C401" t="inlineStr">
+        <is>
+          <t>file-descriptor-leak</t>
+        </is>
+      </c>
+      <c r="D401" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="E401" t="n">
+        <v>100</v>
+      </c>
+      <c r="F401" t="n">
+        <v>185052</v>
+      </c>
+      <c r="G401" t="n">
+        <v>38</v>
+      </c>
+      <c r="H401" s="2" t="n">
+        <v>0.8023456999999997</v>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" t="inlineStr">
+        <is>
+          <t>run-20260125_202427</t>
+        </is>
+      </c>
+      <c r="B402" t="inlineStr">
+        <is>
+          <t>tools-plus</t>
+        </is>
+      </c>
+      <c r="C402" t="inlineStr">
+        <is>
+          <t>tcp-close-wait</t>
+        </is>
+      </c>
+      <c r="D402" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="E402" t="n">
+        <v>95</v>
+      </c>
+      <c r="F402" t="n">
+        <v>334332</v>
+      </c>
+      <c r="G402" t="n">
+        <v>81</v>
+      </c>
+      <c r="H402" s="2" t="n">
+        <v>2.252663449999999</v>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" t="inlineStr">
+        <is>
+          <t>run-20260125_202427</t>
+        </is>
+      </c>
+      <c r="B403" t="inlineStr">
+        <is>
+          <t>tools-plus</t>
+        </is>
+      </c>
+      <c r="C403" t="inlineStr">
+        <is>
+          <t>io-wait</t>
+        </is>
+      </c>
+      <c r="D403" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="E403" t="n">
+        <v>72</v>
+      </c>
+      <c r="F403" t="n">
+        <v>183960</v>
+      </c>
+      <c r="G403" t="n">
+        <v>55</v>
+      </c>
+      <c r="H403" s="2" t="n">
+        <v>0.8610974999999997</v>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" t="inlineStr">
+        <is>
+          <t>run-20260125_202427</t>
+        </is>
+      </c>
+      <c r="B404" t="inlineStr">
+        <is>
+          <t>tools-plus</t>
+        </is>
+      </c>
+      <c r="C404" t="inlineStr">
+        <is>
+          <t>context-switching-storm</t>
+        </is>
+      </c>
+      <c r="D404" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="E404" t="n">
+        <v>100</v>
+      </c>
+      <c r="F404" t="n">
+        <v>142548</v>
+      </c>
+      <c r="G404" t="n">
+        <v>47</v>
+      </c>
+      <c r="H404" s="2" t="n">
+        <v>0.5439659000000002</v>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" t="inlineStr">
+        <is>
+          <t>run-20260125_202427</t>
+        </is>
+      </c>
+      <c r="B405" t="inlineStr">
+        <is>
+          <t>tools-plus</t>
+        </is>
+      </c>
+      <c r="C405" t="inlineStr">
+        <is>
+          <t>inode-exhaustion</t>
+        </is>
+      </c>
+      <c r="D405" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="E405" t="n">
+        <v>15</v>
+      </c>
+      <c r="F405" t="n">
+        <v>220366</v>
+      </c>
+      <c r="G405" t="n">
+        <v>36</v>
+      </c>
+      <c r="H405" s="2" t="n">
+        <v>1.1902262</v>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" t="inlineStr">
+        <is>
+          <t>run-20260125_202427</t>
+        </is>
+      </c>
+      <c r="B406" t="inlineStr">
+        <is>
+          <t>tools-plus</t>
+        </is>
+      </c>
+      <c r="C406" t="inlineStr">
+        <is>
+          <t>tcp-syn-flood</t>
+        </is>
+      </c>
+      <c r="D406" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="E406" t="n">
+        <v>25</v>
+      </c>
+      <c r="F406" t="n">
+        <v>168439</v>
+      </c>
+      <c r="G406" t="n">
+        <v>49</v>
+      </c>
+      <c r="H406" s="2" t="n">
+        <v>0.6880152499999999</v>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" t="inlineStr">
+        <is>
+          <t>run-20260125_215614</t>
+        </is>
+      </c>
+      <c r="B407" t="inlineStr">
+        <is>
+          <t>tools-plus</t>
+        </is>
+      </c>
+      <c r="C407" t="inlineStr">
+        <is>
+          <t>high-cpu-usage</t>
+        </is>
+      </c>
+      <c r="D407" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="E407" t="n">
+        <v>5</v>
+      </c>
+      <c r="F407" t="n">
+        <v>343967</v>
+      </c>
+      <c r="G407" t="n">
+        <v>48</v>
+      </c>
+      <c r="H407" s="2" t="n">
+        <v>1.675618949999999</v>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" t="inlineStr">
+        <is>
+          <t>run-20260125_215614</t>
+        </is>
+      </c>
+      <c r="B408" t="inlineStr">
+        <is>
+          <t>tools-plus</t>
+        </is>
+      </c>
+      <c r="C408" t="inlineStr">
+        <is>
+          <t>disk-space-full</t>
+        </is>
+      </c>
+      <c r="D408" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="E408" t="n">
+        <v>92</v>
+      </c>
+      <c r="F408" t="n">
+        <v>184268</v>
+      </c>
+      <c r="G408" t="n">
+        <v>61</v>
+      </c>
+      <c r="H408" s="2" t="n">
+        <v>0.98423375</v>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" t="inlineStr">
+        <is>
+          <t>run-20260125_215614</t>
+        </is>
+      </c>
+      <c r="B409" t="inlineStr">
+        <is>
+          <t>tools-plus</t>
+        </is>
+      </c>
+      <c r="C409" t="inlineStr">
+        <is>
+          <t>port-conflict</t>
+        </is>
+      </c>
+      <c r="D409" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="E409" t="n">
+        <v>95</v>
+      </c>
+      <c r="F409" t="n">
+        <v>238888</v>
+      </c>
+      <c r="G409" t="n">
+        <v>77</v>
+      </c>
+      <c r="H409" s="2" t="n">
+        <v>1.536813699999999</v>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" t="inlineStr">
+        <is>
+          <t>run-20260125_215614</t>
+        </is>
+      </c>
+      <c r="B410" t="inlineStr">
+        <is>
+          <t>tools-plus</t>
+        </is>
+      </c>
+      <c r="C410" t="inlineStr">
+        <is>
+          <t>zombie-processes</t>
+        </is>
+      </c>
+      <c r="D410" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="E410" t="n">
+        <v>100</v>
+      </c>
+      <c r="F410" t="n">
+        <v>165860</v>
+      </c>
+      <c r="G410" t="n">
+        <v>45</v>
+      </c>
+      <c r="H410" s="2" t="n">
+        <v>1.150656000000001</v>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" t="inlineStr">
+        <is>
+          <t>run-20260125_215614</t>
+        </is>
+      </c>
+      <c r="B411" t="inlineStr">
+        <is>
+          <t>tools-plus</t>
+        </is>
+      </c>
+      <c r="C411" t="inlineStr">
+        <is>
+          <t>dns-resolution-failure</t>
+        </is>
+      </c>
+      <c r="D411" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="E411" t="n">
+        <v>100</v>
+      </c>
+      <c r="F411" t="n">
+        <v>189286</v>
+      </c>
+      <c r="G411" t="n">
+        <v>50</v>
+      </c>
+      <c r="H411" s="2" t="n">
+        <v>1.03368095</v>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" t="inlineStr">
+        <is>
+          <t>run-20260125_215614</t>
+        </is>
+      </c>
+      <c r="B412" t="inlineStr">
+        <is>
+          <t>tools-plus</t>
+        </is>
+      </c>
+      <c r="C412" t="inlineStr">
+        <is>
+          <t>memory-leak</t>
+        </is>
+      </c>
+      <c r="D412" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="E412" t="n">
+        <v>100</v>
+      </c>
+      <c r="F412" t="n">
+        <v>204171</v>
+      </c>
+      <c r="G412" t="n">
+        <v>42</v>
+      </c>
+      <c r="H412" s="2" t="n">
+        <v>0.6687820500000001</v>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" t="inlineStr">
+        <is>
+          <t>run-20260125_215614</t>
+        </is>
+      </c>
+      <c r="B413" t="inlineStr">
+        <is>
+          <t>tools-plus</t>
+        </is>
+      </c>
+      <c r="C413" t="inlineStr">
+        <is>
+          <t>connection-exhaustion</t>
+        </is>
+      </c>
+      <c r="D413" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="E413" t="n">
+        <v>100</v>
+      </c>
+      <c r="F413" t="n">
+        <v>170559</v>
+      </c>
+      <c r="G413" t="n">
+        <v>31</v>
+      </c>
+      <c r="H413" s="2" t="n">
+        <v>0.7068193500000003</v>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" t="inlineStr">
+        <is>
+          <t>run-20260125_215614</t>
+        </is>
+      </c>
+      <c r="B414" t="inlineStr">
+        <is>
+          <t>tools-plus</t>
+        </is>
+      </c>
+      <c r="C414" t="inlineStr">
+        <is>
+          <t>log-rotation-failure</t>
+        </is>
+      </c>
+      <c r="D414" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="E414" t="n">
+        <v>25</v>
+      </c>
+      <c r="F414" t="n">
+        <v>299703</v>
+      </c>
+      <c r="G414" t="n">
+        <v>101</v>
+      </c>
+      <c r="H414" s="2" t="n">
+        <v>1.7535822</v>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" t="inlineStr">
+        <is>
+          <t>run-20260125_215614</t>
+        </is>
+      </c>
+      <c r="B415" t="inlineStr">
+        <is>
+          <t>tools-plus</t>
+        </is>
+      </c>
+      <c r="C415" t="inlineStr">
+        <is>
+          <t>swap-thrashing</t>
+        </is>
+      </c>
+      <c r="D415" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="E415" t="n">
+        <v>95</v>
+      </c>
+      <c r="F415" t="n">
+        <v>114120</v>
+      </c>
+      <c r="G415" t="n">
+        <v>40</v>
+      </c>
+      <c r="H415" s="2" t="n">
+        <v>0.5184267499999998</v>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" t="inlineStr">
+        <is>
+          <t>run-20260125_215614</t>
+        </is>
+      </c>
+      <c r="B416" t="inlineStr">
+        <is>
+          <t>tools-plus</t>
+        </is>
+      </c>
+      <c r="C416" t="inlineStr">
+        <is>
+          <t>file-descriptor-leak</t>
+        </is>
+      </c>
+      <c r="D416" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="E416" t="n">
+        <v>100</v>
+      </c>
+      <c r="F416" t="n">
+        <v>251862</v>
+      </c>
+      <c r="G416" t="n">
+        <v>48</v>
+      </c>
+      <c r="H416" s="2" t="n">
+        <v>1.6465874</v>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" t="inlineStr">
+        <is>
+          <t>run-20260125_215614</t>
+        </is>
+      </c>
+      <c r="B417" t="inlineStr">
+        <is>
+          <t>tools-plus</t>
+        </is>
+      </c>
+      <c r="C417" t="inlineStr">
+        <is>
+          <t>tcp-close-wait</t>
+        </is>
+      </c>
+      <c r="D417" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="E417" t="n">
+        <v>100</v>
+      </c>
+      <c r="F417" t="n">
+        <v>263316</v>
+      </c>
+      <c r="G417" t="n">
+        <v>72</v>
+      </c>
+      <c r="H417" s="2" t="n">
+        <v>1.1619051</v>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" t="inlineStr">
+        <is>
+          <t>run-20260125_215614</t>
+        </is>
+      </c>
+      <c r="B418" t="inlineStr">
+        <is>
+          <t>tools-plus</t>
+        </is>
+      </c>
+      <c r="C418" t="inlineStr">
+        <is>
+          <t>io-wait</t>
+        </is>
+      </c>
+      <c r="D418" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="E418" t="n">
+        <v>95</v>
+      </c>
+      <c r="F418" t="n">
+        <v>326586</v>
+      </c>
+      <c r="G418" t="n">
+        <v>64</v>
+      </c>
+      <c r="H418" s="2" t="n">
+        <v>1.503743699999999</v>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" t="inlineStr">
+        <is>
+          <t>run-20260125_215614</t>
+        </is>
+      </c>
+      <c r="B419" t="inlineStr">
+        <is>
+          <t>tools-plus</t>
+        </is>
+      </c>
+      <c r="C419" t="inlineStr">
+        <is>
+          <t>context-switching-storm</t>
+        </is>
+      </c>
+      <c r="D419" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="E419" t="n">
+        <v>95</v>
+      </c>
+      <c r="F419" t="n">
+        <v>204135</v>
+      </c>
+      <c r="G419" t="n">
+        <v>34</v>
+      </c>
+      <c r="H419" s="2" t="n">
+        <v>1.102479</v>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" t="inlineStr">
+        <is>
+          <t>run-20260125_215614</t>
+        </is>
+      </c>
+      <c r="B420" t="inlineStr">
+        <is>
+          <t>tools-plus</t>
+        </is>
+      </c>
+      <c r="C420" t="inlineStr">
+        <is>
+          <t>inode-exhaustion</t>
+        </is>
+      </c>
+      <c r="D420" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="E420" t="n">
+        <v>15</v>
+      </c>
+      <c r="F420" t="n">
+        <v>231799</v>
+      </c>
+      <c r="G420" t="n">
+        <v>77</v>
+      </c>
+      <c r="H420" s="2" t="n">
+        <v>1.2053132</v>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" t="inlineStr">
+        <is>
+          <t>run-20260125_215614</t>
+        </is>
+      </c>
+      <c r="B421" t="inlineStr">
+        <is>
+          <t>tools-plus</t>
+        </is>
+      </c>
+      <c r="C421" t="inlineStr">
+        <is>
+          <t>tcp-syn-flood</t>
+        </is>
+      </c>
+      <c r="D421" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="E421" t="n">
+        <v>5</v>
+      </c>
+      <c r="F421" t="n">
+        <v>238573</v>
+      </c>
+      <c r="G421" t="n">
+        <v>40</v>
+      </c>
+      <c r="H421" s="2" t="n">
+        <v>1.39040295</v>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" t="inlineStr">
+        <is>
+          <t>run-20260126_085903</t>
+        </is>
+      </c>
+      <c r="B422" t="inlineStr">
+        <is>
+          <t>tools-plus</t>
+        </is>
+      </c>
+      <c r="C422" t="inlineStr">
+        <is>
+          <t>high-cpu-usage</t>
+        </is>
+      </c>
+      <c r="D422" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="E422" t="n">
+        <v>100</v>
+      </c>
+      <c r="F422" t="n">
+        <v>237396</v>
+      </c>
+      <c r="G422" t="n">
+        <v>39</v>
+      </c>
+      <c r="H422" s="2" t="n">
+        <v>0.5228632499999999</v>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" t="inlineStr">
+        <is>
+          <t>run-20260126_085903</t>
+        </is>
+      </c>
+      <c r="B423" t="inlineStr">
+        <is>
+          <t>tools-plus</t>
+        </is>
+      </c>
+      <c r="C423" t="inlineStr">
+        <is>
+          <t>disk-space-full</t>
+        </is>
+      </c>
+      <c r="D423" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="E423" t="n">
+        <v>78</v>
+      </c>
+      <c r="F423" t="n">
+        <v>205172</v>
+      </c>
+      <c r="G423" t="n">
+        <v>66</v>
+      </c>
+      <c r="H423" s="2" t="n">
+        <v>1.24214895</v>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" t="inlineStr">
+        <is>
+          <t>run-20260126_085903</t>
+        </is>
+      </c>
+      <c r="B424" t="inlineStr">
+        <is>
+          <t>tools-plus</t>
+        </is>
+      </c>
+      <c r="C424" t="inlineStr">
+        <is>
+          <t>port-conflict</t>
+        </is>
+      </c>
+      <c r="D424" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="E424" t="n">
+        <v>100</v>
+      </c>
+      <c r="F424" t="n">
+        <v>269059</v>
+      </c>
+      <c r="G424" t="n">
+        <v>81</v>
+      </c>
+      <c r="H424" s="2" t="n">
+        <v>1.385587950000001</v>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" t="inlineStr">
+        <is>
+          <t>run-20260126_085903</t>
+        </is>
+      </c>
+      <c r="B425" t="inlineStr">
+        <is>
+          <t>tools-plus</t>
+        </is>
+      </c>
+      <c r="C425" t="inlineStr">
+        <is>
+          <t>zombie-processes</t>
+        </is>
+      </c>
+      <c r="D425" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="E425" t="n">
+        <v>100</v>
+      </c>
+      <c r="F425" t="n">
+        <v>233264</v>
+      </c>
+      <c r="G425" t="n">
+        <v>52</v>
+      </c>
+      <c r="H425" s="2" t="n">
+        <v>0.9567266999999999</v>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" t="inlineStr">
+        <is>
+          <t>run-20260126_085903</t>
+        </is>
+      </c>
+      <c r="B426" t="inlineStr">
+        <is>
+          <t>tools-plus</t>
+        </is>
+      </c>
+      <c r="C426" t="inlineStr">
+        <is>
+          <t>dns-resolution-failure</t>
+        </is>
+      </c>
+      <c r="D426" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="E426" t="n">
+        <v>100</v>
+      </c>
+      <c r="F426" t="n">
+        <v>170564</v>
+      </c>
+      <c r="G426" t="n">
+        <v>49</v>
+      </c>
+      <c r="H426" s="2" t="n">
+        <v>0.7275219499999996</v>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" t="inlineStr">
+        <is>
+          <t>run-20260126_085903</t>
+        </is>
+      </c>
+      <c r="B427" t="inlineStr">
+        <is>
+          <t>tools-plus</t>
+        </is>
+      </c>
+      <c r="C427" t="inlineStr">
+        <is>
+          <t>memory-leak</t>
+        </is>
+      </c>
+      <c r="D427" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="E427" t="n">
+        <v>100</v>
+      </c>
+      <c r="F427" t="n">
+        <v>141945</v>
+      </c>
+      <c r="G427" t="n">
+        <v>48</v>
+      </c>
+      <c r="H427" s="2" t="n">
+        <v>0.817071749999999</v>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" t="inlineStr">
+        <is>
+          <t>run-20260126_085903</t>
+        </is>
+      </c>
+      <c r="B428" t="inlineStr">
+        <is>
+          <t>tools-plus</t>
+        </is>
+      </c>
+      <c r="C428" t="inlineStr">
+        <is>
+          <t>connection-exhaustion</t>
+        </is>
+      </c>
+      <c r="D428" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="E428" t="n">
+        <v>98</v>
+      </c>
+      <c r="F428" t="n">
+        <v>232110</v>
+      </c>
+      <c r="G428" t="n">
+        <v>71</v>
+      </c>
+      <c r="H428" s="2" t="n">
+        <v>1.3615331</v>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" t="inlineStr">
+        <is>
+          <t>run-20260126_085903</t>
+        </is>
+      </c>
+      <c r="B429" t="inlineStr">
+        <is>
+          <t>tools-plus</t>
+        </is>
+      </c>
+      <c r="C429" t="inlineStr">
+        <is>
+          <t>log-rotation-failure</t>
+        </is>
+      </c>
+      <c r="D429" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="E429" t="n">
+        <v>82</v>
+      </c>
+      <c r="F429" t="n">
+        <v>239121</v>
+      </c>
+      <c r="G429" t="n">
+        <v>65</v>
+      </c>
+      <c r="H429" s="2" t="n">
+        <v>1.123936849999999</v>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" t="inlineStr">
+        <is>
+          <t>run-20260126_085903</t>
+        </is>
+      </c>
+      <c r="B430" t="inlineStr">
+        <is>
+          <t>tools-plus</t>
+        </is>
+      </c>
+      <c r="C430" t="inlineStr">
+        <is>
+          <t>swap-thrashing</t>
+        </is>
+      </c>
+      <c r="D430" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="E430" t="n">
+        <v>88</v>
+      </c>
+      <c r="F430" t="n">
+        <v>214990</v>
+      </c>
+      <c r="G430" t="n">
+        <v>65</v>
+      </c>
+      <c r="H430" s="2" t="n">
+        <v>1.076247350000001</v>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" t="inlineStr">
+        <is>
+          <t>run-20260126_085903</t>
+        </is>
+      </c>
+      <c r="B431" t="inlineStr">
+        <is>
+          <t>tools-plus</t>
+        </is>
+      </c>
+      <c r="C431" t="inlineStr">
+        <is>
+          <t>file-descriptor-leak</t>
+        </is>
+      </c>
+      <c r="D431" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="E431" t="n">
+        <v>100</v>
+      </c>
+      <c r="F431" t="n">
+        <v>125711</v>
+      </c>
+      <c r="G431" t="n">
+        <v>42</v>
+      </c>
+      <c r="H431" s="2" t="n">
+        <v>0.9354105</v>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" t="inlineStr">
+        <is>
+          <t>run-20260126_085903</t>
+        </is>
+      </c>
+      <c r="B432" t="inlineStr">
+        <is>
+          <t>tools-plus</t>
+        </is>
+      </c>
+      <c r="C432" t="inlineStr">
+        <is>
+          <t>tcp-close-wait</t>
+        </is>
+      </c>
+      <c r="D432" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="E432" t="n">
+        <v>88</v>
+      </c>
+      <c r="F432" t="n">
+        <v>189425</v>
+      </c>
+      <c r="G432" t="n">
+        <v>57</v>
+      </c>
+      <c r="H432" s="2" t="n">
+        <v>1.165037849999999</v>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" t="inlineStr">
+        <is>
+          <t>run-20260126_085903</t>
+        </is>
+      </c>
+      <c r="B433" t="inlineStr">
+        <is>
+          <t>tools-plus</t>
+        </is>
+      </c>
+      <c r="C433" t="inlineStr">
+        <is>
+          <t>io-wait</t>
+        </is>
+      </c>
+      <c r="D433" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="E433" t="n">
+        <v>88</v>
+      </c>
+      <c r="F433" t="n">
+        <v>281135</v>
+      </c>
+      <c r="G433" t="n">
+        <v>75</v>
+      </c>
+      <c r="H433" s="2" t="n">
+        <v>1.528373349999999</v>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" t="inlineStr">
+        <is>
+          <t>run-20260126_085903</t>
+        </is>
+      </c>
+      <c r="B434" t="inlineStr">
+        <is>
+          <t>tools-plus</t>
+        </is>
+      </c>
+      <c r="C434" t="inlineStr">
+        <is>
+          <t>context-switching-storm</t>
+        </is>
+      </c>
+      <c r="D434" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="E434" t="n">
+        <v>72</v>
+      </c>
+      <c r="F434" t="n">
+        <v>187304</v>
+      </c>
+      <c r="G434" t="n">
+        <v>62</v>
+      </c>
+      <c r="H434" s="2" t="n">
+        <v>1.349376249999999</v>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" t="inlineStr">
+        <is>
+          <t>run-20260126_085903</t>
+        </is>
+      </c>
+      <c r="B435" t="inlineStr">
+        <is>
+          <t>tools-plus</t>
+        </is>
+      </c>
+      <c r="C435" t="inlineStr">
+        <is>
+          <t>inode-exhaustion</t>
+        </is>
+      </c>
+      <c r="D435" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="E435" t="n">
+        <v>15</v>
+      </c>
+      <c r="F435" t="n">
+        <v>143348</v>
+      </c>
+      <c r="G435" t="n">
+        <v>41</v>
+      </c>
+      <c r="H435" s="2" t="n">
+        <v>0.8774700999999997</v>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" t="inlineStr">
+        <is>
+          <t>run-20260126_085903</t>
+        </is>
+      </c>
+      <c r="B436" t="inlineStr">
+        <is>
+          <t>tools-plus</t>
+        </is>
+      </c>
+      <c r="C436" t="inlineStr">
+        <is>
+          <t>tcp-syn-flood</t>
+        </is>
+      </c>
+      <c r="D436" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="E436" t="n">
+        <v>10</v>
+      </c>
+      <c r="F436" t="n">
+        <v>190743</v>
+      </c>
+      <c r="G436" t="n">
+        <v>53</v>
+      </c>
+      <c r="H436" s="2" t="n">
+        <v>0.7827785499999996</v>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" t="inlineStr">
+        <is>
+          <t>run-20260126_115815</t>
+        </is>
+      </c>
+      <c r="B437" t="inlineStr">
+        <is>
+          <t>tools-plus</t>
+        </is>
+      </c>
+      <c r="C437" t="inlineStr">
+        <is>
+          <t>high-cpu-usage</t>
+        </is>
+      </c>
+      <c r="D437" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="E437" t="n">
+        <v>100</v>
+      </c>
+      <c r="F437" t="n">
+        <v>265986</v>
+      </c>
+      <c r="G437" t="n">
+        <v>81</v>
+      </c>
+      <c r="H437" s="2" t="n">
+        <v>1.8564645</v>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" t="inlineStr">
+        <is>
+          <t>run-20260126_115815</t>
+        </is>
+      </c>
+      <c r="B438" t="inlineStr">
+        <is>
+          <t>tools-plus</t>
+        </is>
+      </c>
+      <c r="C438" t="inlineStr">
+        <is>
+          <t>disk-space-full</t>
+        </is>
+      </c>
+      <c r="D438" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="E438" t="n">
+        <v>85</v>
+      </c>
+      <c r="F438" t="n">
+        <v>147031</v>
+      </c>
+      <c r="G438" t="n">
+        <v>57</v>
+      </c>
+      <c r="H438" s="2" t="n">
+        <v>0.7708652499999999</v>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" t="inlineStr">
+        <is>
+          <t>run-20260126_115815</t>
+        </is>
+      </c>
+      <c r="B439" t="inlineStr">
+        <is>
+          <t>tools-plus</t>
+        </is>
+      </c>
+      <c r="C439" t="inlineStr">
+        <is>
+          <t>port-conflict</t>
+        </is>
+      </c>
+      <c r="D439" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="E439" t="n">
+        <v>95</v>
+      </c>
+      <c r="F439" t="n">
+        <v>194746</v>
+      </c>
+      <c r="G439" t="n">
+        <v>72</v>
+      </c>
+      <c r="H439" s="2" t="n">
+        <v>0.8545308000000006</v>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" t="inlineStr">
+        <is>
+          <t>run-20260126_115815</t>
+        </is>
+      </c>
+      <c r="B440" t="inlineStr">
+        <is>
+          <t>tools-plus</t>
+        </is>
+      </c>
+      <c r="C440" t="inlineStr">
+        <is>
+          <t>zombie-processes</t>
+        </is>
+      </c>
+      <c r="D440" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="E440" t="n">
+        <v>100</v>
+      </c>
+      <c r="F440" t="n">
+        <v>229743</v>
+      </c>
+      <c r="G440" t="n">
+        <v>64</v>
+      </c>
+      <c r="H440" s="2" t="n">
+        <v>1.543962799999999</v>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" t="inlineStr">
+        <is>
+          <t>run-20260126_115815</t>
+        </is>
+      </c>
+      <c r="B441" t="inlineStr">
+        <is>
+          <t>tools-plus</t>
+        </is>
+      </c>
+      <c r="C441" t="inlineStr">
+        <is>
+          <t>dns-resolution-failure</t>
+        </is>
+      </c>
+      <c r="D441" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="E441" t="n">
+        <v>100</v>
+      </c>
+      <c r="F441" t="n">
+        <v>310821</v>
+      </c>
+      <c r="G441" t="n">
+        <v>45</v>
+      </c>
+      <c r="H441" s="2" t="n">
+        <v>1.592928300000001</v>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" t="inlineStr">
+        <is>
+          <t>run-20260126_115815</t>
+        </is>
+      </c>
+      <c r="B442" t="inlineStr">
+        <is>
+          <t>tools-plus</t>
+        </is>
+      </c>
+      <c r="C442" t="inlineStr">
+        <is>
+          <t>memory-leak</t>
+        </is>
+      </c>
+      <c r="D442" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="E442" t="n">
+        <v>100</v>
+      </c>
+      <c r="F442" t="n">
+        <v>274970</v>
+      </c>
+      <c r="G442" t="n">
+        <v>49</v>
+      </c>
+      <c r="H442" s="2" t="n">
+        <v>1.69300745</v>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" t="inlineStr">
+        <is>
+          <t>run-20260126_115815</t>
+        </is>
+      </c>
+      <c r="B443" t="inlineStr">
+        <is>
+          <t>tools-plus</t>
+        </is>
+      </c>
+      <c r="C443" t="inlineStr">
+        <is>
+          <t>connection-exhaustion</t>
+        </is>
+      </c>
+      <c r="D443" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="E443" t="n">
+        <v>98</v>
+      </c>
+      <c r="F443" t="n">
+        <v>147651</v>
+      </c>
+      <c r="G443" t="n">
+        <v>49</v>
+      </c>
+      <c r="H443" s="2" t="n">
+        <v>0.8759599999999997</v>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" t="inlineStr">
+        <is>
+          <t>run-20260126_115815</t>
+        </is>
+      </c>
+      <c r="B444" t="inlineStr">
+        <is>
+          <t>tools-plus</t>
+        </is>
+      </c>
+      <c r="C444" t="inlineStr">
+        <is>
+          <t>log-rotation-failure</t>
+        </is>
+      </c>
+      <c r="D444" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="E444" t="n">
+        <v>52</v>
+      </c>
+      <c r="F444" t="n">
+        <v>345048</v>
+      </c>
+      <c r="G444" t="n">
+        <v>68</v>
+      </c>
+      <c r="H444" s="2" t="n">
+        <v>2.2506348</v>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" t="inlineStr">
+        <is>
+          <t>run-20260126_115815</t>
+        </is>
+      </c>
+      <c r="B445" t="inlineStr">
+        <is>
+          <t>tools-plus</t>
+        </is>
+      </c>
+      <c r="C445" t="inlineStr">
+        <is>
+          <t>swap-thrashing</t>
+        </is>
+      </c>
+      <c r="D445" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="E445" t="n">
+        <v>95</v>
+      </c>
+      <c r="F445" t="n">
+        <v>412291</v>
+      </c>
+      <c r="G445" t="n">
+        <v>51</v>
+      </c>
+      <c r="H445" s="2" t="n">
+        <v>2.2502788</v>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" t="inlineStr">
+        <is>
+          <t>run-20260126_115815</t>
+        </is>
+      </c>
+      <c r="B446" t="inlineStr">
+        <is>
+          <t>tools-plus</t>
+        </is>
+      </c>
+      <c r="C446" t="inlineStr">
+        <is>
+          <t>file-descriptor-leak</t>
+        </is>
+      </c>
+      <c r="D446" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="E446" t="n">
+        <v>100</v>
+      </c>
+      <c r="F446" t="n">
+        <v>277703</v>
+      </c>
+      <c r="G446" t="n">
+        <v>42</v>
+      </c>
+      <c r="H446" s="2" t="n">
+        <v>1.340049699999999</v>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" t="inlineStr">
+        <is>
+          <t>run-20260126_115815</t>
+        </is>
+      </c>
+      <c r="B447" t="inlineStr">
+        <is>
+          <t>tools-plus</t>
+        </is>
+      </c>
+      <c r="C447" t="inlineStr">
+        <is>
+          <t>tcp-close-wait</t>
+        </is>
+      </c>
+      <c r="D447" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="E447" t="n">
+        <v>100</v>
+      </c>
+      <c r="F447" t="n">
+        <v>202432</v>
+      </c>
+      <c r="G447" t="n">
+        <v>58</v>
+      </c>
+      <c r="H447" s="2" t="n">
+        <v>1.220068949999999</v>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" t="inlineStr">
+        <is>
+          <t>run-20260126_115815</t>
+        </is>
+      </c>
+      <c r="B448" t="inlineStr">
+        <is>
+          <t>tools-plus</t>
+        </is>
+      </c>
+      <c r="C448" t="inlineStr">
+        <is>
+          <t>io-wait</t>
+        </is>
+      </c>
+      <c r="D448" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="E448" t="n">
+        <v>42</v>
+      </c>
+      <c r="F448" t="n">
+        <v>378349</v>
+      </c>
+      <c r="G448" t="n">
+        <v>85</v>
+      </c>
+      <c r="H448" s="2" t="n">
+        <v>1.0072683</v>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" t="inlineStr">
+        <is>
+          <t>run-20260126_115815</t>
+        </is>
+      </c>
+      <c r="B449" t="inlineStr">
+        <is>
+          <t>tools-plus</t>
+        </is>
+      </c>
+      <c r="C449" t="inlineStr">
+        <is>
+          <t>context-switching-storm</t>
+        </is>
+      </c>
+      <c r="D449" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="E449" t="n">
+        <v>98</v>
+      </c>
+      <c r="F449" t="n">
+        <v>215530</v>
+      </c>
+      <c r="G449" t="n">
+        <v>49</v>
+      </c>
+      <c r="H449" s="2" t="n">
+        <v>1.3198825</v>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" t="inlineStr">
+        <is>
+          <t>run-20260126_115815</t>
+        </is>
+      </c>
+      <c r="B450" t="inlineStr">
+        <is>
+          <t>tools-plus</t>
+        </is>
+      </c>
+      <c r="C450" t="inlineStr">
+        <is>
+          <t>inode-exhaustion</t>
+        </is>
+      </c>
+      <c r="D450" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="E450" t="n">
+        <v>15</v>
+      </c>
+      <c r="F450" t="n">
+        <v>234344</v>
+      </c>
+      <c r="G450" t="n">
+        <v>32</v>
+      </c>
+      <c r="H450" s="2" t="n">
+        <v>1.09256385</v>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" t="inlineStr">
+        <is>
+          <t>run-20260126_115815</t>
+        </is>
+      </c>
+      <c r="B451" t="inlineStr">
+        <is>
+          <t>tools-plus</t>
+        </is>
+      </c>
+      <c r="C451" t="inlineStr">
+        <is>
+          <t>tcp-syn-flood</t>
+        </is>
+      </c>
+      <c r="D451" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="E451" t="n">
+        <v>10</v>
+      </c>
+      <c r="F451" t="n">
+        <v>233093</v>
+      </c>
+      <c r="G451" t="n">
+        <v>49</v>
+      </c>
+      <c r="H451" s="2" t="n">
+        <v>1.888088249999999</v>
       </c>
     </row>
   </sheetData>
